--- a/CxHy_H2_and_He_template.xlsx
+++ b/CxHy_H2_and_He_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF28DE4-B0AE-48C7-BCA0-A666CF0E2819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8198CD-95F6-4F76-9647-948256856CE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="790" yWindow="0" windowWidth="14730" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="35">
   <si>
     <t>MPa</t>
   </si>
@@ -176,6 +176,10 @@
     <t>303.15K (30 degree of Celsius)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>293.15K (20 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -307,8 +311,25 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Excess</a:t>
+              <a:t>Excess (</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>omparing with Experimental data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -447,11 +468,98 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="6"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'H2'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>243.15K (-30 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B567-413D-88A8-9D777ACE3DAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -486,7 +594,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'H2'!$G$3:$G$8</c:f>
+              <c:f>'H2'!$M$3:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -513,7 +621,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'H2'!$K$3:$K$8</c:f>
+              <c:f>'H2'!$Q$3:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -546,11 +654,185 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:idx val="7"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'H2'!$M$1</c:f>
+              <c:f>'H2'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>253.15K (-20 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$S$3:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$W$3:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B567-413D-88A8-9D777ACE3DAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>263.15K (-10 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$Y$3:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AC$3:$AC$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B567-413D-88A8-9D777ACE3DAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -585,7 +867,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'H2'!$M$3:$M$8</c:f>
+              <c:f>'H2'!$AE$3:$AE$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -612,7 +894,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'H2'!$Q$3:$Q$8</c:f>
+              <c:f>'H2'!$AI$3:$AI$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -645,11 +927,185 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:idx val="9"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'H2'!$S$1</c:f>
+              <c:f>'H2'!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>283.15K (10 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$AK$3:$AK$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AO$3:$AO$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B567-413D-88A8-9D777ACE3DAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$AQ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>293.15K (20 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$AQ$3:$AQ$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AU$3:$AU$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B567-413D-88A8-9D777ACE3DAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$AW$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -684,7 +1140,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'H2'!$S$3:$S$8</c:f>
+              <c:f>'H2'!$AW$3:$AW$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -711,7 +1167,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'H2'!$W$3:$W$8</c:f>
+              <c:f>'H2'!$BA$3:$BA$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -744,11 +1200,98 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:idx val="11"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'H2'!$Y$1</c:f>
+              <c:f>'H2'!$BC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>303.15K (30 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$BC$3:$BC$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$BG$3:$BG$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B567-413D-88A8-9D777ACE3DAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$BI$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -783,7 +1326,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'H2'!$Y$3:$Y$8</c:f>
+              <c:f>'H2'!$BI$3:$BI$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -810,7 +1353,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'H2'!$AC$3:$AC$8</c:f>
+              <c:f>'H2'!$BM$3:$BM$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -844,10 +1387,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'H2'!$AE$1</c:f>
+              <c:f>'H2'!$BO$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -882,7 +1425,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'H2'!$AE$3:$AE$8</c:f>
+              <c:f>'H2'!$BO$3:$BO$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -909,7 +1452,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'H2'!$AI$3:$AI$8</c:f>
+              <c:f>'H2'!$BS$3:$BS$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1271,7 +1814,1416 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Absolute (for </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Product development</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>233.15K (-40 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0896999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.001799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.981999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.981999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4021999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>243.15K (-30 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>248.15K (-25 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.9991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.989899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.976599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.035600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.998699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5150999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0371999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9975999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>253.15K (-20 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$S$3:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$T$3:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>263.15K (-10 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$Y$3:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$Z$3:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>273.15K (0 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$AE$3:$AE$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0031999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.001000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.9908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.002399999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.00069999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AF$3:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5110999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5954999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>283.15K (10 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$AK$3:$AK$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AL$3:$AL$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$AQ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>293.15K (20 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$AQ$3:$AQ$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AR$3:$AR$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$AW$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>298.15K (25 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$AW$3:$AW$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9835000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.002600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.025399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.965800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.03789999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AX$3:$AX$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0073000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2578999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$BC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>303.15K (30 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$BC$3:$BC$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$BD$3:$BD$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$BI$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>313.15K (40 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$BI$3:$BI$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9405000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.008800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.030700000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.904600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.887299999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$BJ$3:$BJ$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.82269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$BO$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>358.15K (85 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$BO$3:$BO$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9966999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.031500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.021999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.001999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$BP$3:$BP$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4831000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3871000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0171-415E-AFA3-673A232A2B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="674615480"/>
+        <c:axId val="674615800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="674615480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pressure / MPa</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674615800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674615800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>H / wt.%</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674615480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1827,20 +3779,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>187326</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1860,6 +4328,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B78584-4A4A-4A38-AA72-AEE209B78E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2131,18 +4637,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:BS13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:71">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2151,22 +4658,40 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BC1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI1" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BO1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:71">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2193,6 +4718,7 @@
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2245,8 +4771,86 @@
       <c r="AI2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="AK2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:71">
       <c r="A3" s="4">
         <v>5.0896999999999997</v>
       </c>
@@ -2265,98 +4869,182 @@
         <f>(C3-D3)/($B$13+C3-D3)*100</f>
         <v>0.8252442705452957</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3">
+        <f>(H3/100)*($B$13)/(1-H3/100)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>He!$I$3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>(I3-J3)/($B$13+I3-J3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
         <v>4.9962</v>
       </c>
-      <c r="H3" s="4">
+      <c r="N3" s="4">
         <v>1.5150999999999999</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I8" si="1">(H3/100)*($B$13)/(1-H3/100)</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O8" si="1">(N3/100)*($B$13)/(1-N3/100)</f>
         <v>434.20039417210154</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <f>He!$N$3</f>
         <v>249.34046170314397</v>
       </c>
-      <c r="K3">
-        <f>(I3-J3)/($B$13+I3-J3)*100</f>
+      <c r="Q3">
+        <f>(O3-P3)/($B$13+O3-P3)*100</f>
         <v>0.65071225282672496</v>
       </c>
-      <c r="M3" s="4">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3">
+        <f t="shared" ref="U3:U8" si="2">(T3/100)*($B$13)/(1-T3/100)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>He!$S$3</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>(U3-V3)/($B$13+U3-V3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA8" si="3">(Z3/100)*($B$13)/(1-Z3/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>He!$X$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>(AA3-AB3)/($B$13+AA3-AB3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
         <v>5.0031999999999996</v>
       </c>
-      <c r="N3" s="4">
+      <c r="AF3" s="4">
         <v>1.1891</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O5" si="2">(N3/100)*($B$13)/(1-N3/100)</f>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG5" si="4">(AF3/100)*($B$13)/(1-AF3/100)</f>
         <v>339.65036650814841</v>
       </c>
-      <c r="P3">
+      <c r="AH3">
         <f>He!$AC$3</f>
         <v>191.36604330085166</v>
       </c>
-      <c r="Q3">
-        <f>(O3-P3)/($B$13+O3-P3)*100</f>
-        <v>0.52263794313525413</v>
-      </c>
-      <c r="S3" s="4">
-        <v>4.9835000000000003</v>
-      </c>
-      <c r="T3" s="4">
-        <v>1.0073000000000001</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U8" si="3">(T3/100)*($B$13)/(1-T3/100)</f>
-        <v>287.19324960325361</v>
-      </c>
-      <c r="V3">
-        <f>He!$AM$3</f>
-        <v>174.05310223785571</v>
-      </c>
-      <c r="W3">
-        <f>(U3-V3)/($B$13+U3-V3)*100</f>
-        <v>0.39926452273242874</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>4.9405000000000001</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0.82269999999999999</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA6" si="4">(Z3/100)*($B$13)/(1-Z3/100)</f>
-        <v>234.12499432833926</v>
-      </c>
-      <c r="AB3">
-        <f>He!$AW$3</f>
-        <v>149.06390248152044</v>
-      </c>
-      <c r="AC3">
-        <f>(AA3-AB3)/($B$13+AA3-AB3)*100</f>
-        <v>0.30047302371083201</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>4.9966999999999997</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>0.68430000000000002</v>
-      </c>
-      <c r="AG3">
-        <f>(AF3/100)*($B$13)/(1-AF3/100)</f>
-        <v>194.46757360618716</v>
-      </c>
-      <c r="AH3">
-        <f>He!$BB$3</f>
-        <v>132.05443998416902</v>
-      </c>
       <c r="AI3">
         <f>(AG3-AH3)/($B$13+AG3-AH3)*100</f>
+        <v>0.52263794313525413</v>
+      </c>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM8" si="5">(AL3/100)*($B$13)/(1-AL3/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f>He!$AH$3</f>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f>(AM3-AN3)/($B$13+AM3-AN3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3">
+        <f t="shared" ref="AS3:AS8" si="6">(AR3/100)*($B$13)/(1-AR3/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <f>He!$AM$3</f>
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <f>(AS3-AT3)/($B$13+AS3-AT3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="4">
+        <v>4.9835000000000003</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ref="AY3:AY8" si="7">(AX3/100)*($B$13)/(1-AX3/100)</f>
+        <v>287.19324960325361</v>
+      </c>
+      <c r="AZ3">
+        <f>He!$AR$3</f>
+        <v>174.05310223785571</v>
+      </c>
+      <c r="BA3">
+        <f>(AY3-AZ3)/($B$13+AY3-AZ3)*100</f>
+        <v>0.39926452273242874</v>
+      </c>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3">
+        <f t="shared" ref="BE3:BE8" si="8">(BD3/100)*($B$13)/(1-BD3/100)</f>
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <f>He!$AW$3</f>
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <f>(BE3-BF3)/($B$13+BE3-BF3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>4.9405000000000001</v>
+      </c>
+      <c r="BJ3" s="4">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" ref="BK3:BK6" si="9">(BJ3/100)*($B$13)/(1-BJ3/100)</f>
+        <v>234.12499432833926</v>
+      </c>
+      <c r="BL3">
+        <f>He!$BB$3</f>
+        <v>149.06390248152044</v>
+      </c>
+      <c r="BM3">
+        <f>(BK3-BL3)/($B$13+BK3-BL3)*100</f>
+        <v>0.30047302371083201</v>
+      </c>
+      <c r="BO3" s="4">
+        <v>4.9966999999999997</v>
+      </c>
+      <c r="BP3" s="4">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="BQ3">
+        <f>(BP3/100)*($B$13)/(1-BP3/100)</f>
+        <v>194.46757360618716</v>
+      </c>
+      <c r="BR3">
+        <f>He!$BG$3</f>
+        <v>132.05443998416902</v>
+      </c>
+      <c r="BS3">
+        <f>(BQ3-BR3)/($B$13+BQ3-BR3)*100</f>
         <v>0.22064704113308786</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:71">
       <c r="A4" s="4">
         <v>15.0274</v>
       </c>
@@ -2372,101 +5060,185 @@
         <v>376.34161517421109</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E6" si="5">(C4-D4)/($B$13+C4-D4)*100</f>
+        <f t="shared" ref="E4:E6" si="10">(C4-D4)/($B$13+C4-D4)*100</f>
         <v>2.0604607073851047</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4">
+        <f t="shared" ref="I4:I8" si="11">(H4/100)*($B$13)/(1-H4/100)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>He!$I$4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K8" si="12">(I4-J4)/($B$13+I4-J4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>14.9991</v>
       </c>
-      <c r="H4" s="4">
+      <c r="N4" s="4">
         <v>3.0371999999999999</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <f t="shared" si="1"/>
         <v>884.07031150090552</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <f>He!$N$4</f>
         <v>428.02464349505459</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K8" si="6">(I4-J4)/($B$13+I4-J4)*100</f>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q8" si="13">(O4-P4)/($B$13+O4-P4)*100</f>
         <v>1.5901148599445734</v>
       </c>
-      <c r="M4" s="4">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>He!$S$4</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W8" si="14">(U4-V4)/($B$13+U4-V4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>He!$X$4</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC8" si="15">(AA4-AB4)/($B$13+AA4-AB4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
         <v>15.0036</v>
       </c>
-      <c r="N4" s="4">
+      <c r="AF4" s="4">
         <v>2.5110999999999999</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
+      <c r="AG4">
+        <f t="shared" si="4"/>
         <v>726.98826635647742</v>
       </c>
-      <c r="P4">
+      <c r="AH4">
         <f>He!$AC$4</f>
         <v>356.54205315214972</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q5" si="7">(O4-P4)/($B$13+O4-P4)*100</f>
+      <c r="AI4">
+        <f t="shared" ref="AI4:AI5" si="16">(AG4-AH4)/($B$13+AG4-AH4)*100</f>
         <v>1.2955180542481122</v>
       </c>
-      <c r="S4" s="4">
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>He!$AH$4</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" ref="AO4:AO8" si="17">(AM4-AN4)/($B$13+AM4-AN4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <f>He!$AM$4</f>
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" ref="AU4:AU8" si="18">(AS4-AT4)/($B$13+AS4-AT4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4">
         <v>15.0192</v>
       </c>
-      <c r="T4" s="4">
+      <c r="AX4" s="4">
         <v>2.0964</v>
       </c>
-      <c r="U4">
-        <f t="shared" si="3"/>
+      <c r="AY4">
+        <f t="shared" si="7"/>
         <v>604.35769062628958</v>
       </c>
-      <c r="V4">
-        <f>He!$AM$4</f>
+      <c r="AZ4">
+        <f>He!$AR$4</f>
         <v>325.24517773751114</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W8" si="8">(U4-V4)/($B$13+U4-V4)*100</f>
+      <c r="BA4">
+        <f t="shared" ref="BA4:BA8" si="19">(AY4-AZ4)/($B$13+AY4-AZ4)*100</f>
         <v>0.97923520725172375</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <f>He!$AW$4</f>
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" ref="BG4:BG8" si="20">(BE4-BF4)/($B$13+BE4-BF4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="BI4" s="4">
         <v>15.008800000000001</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="BJ4" s="4">
         <v>1.9617</v>
       </c>
-      <c r="AA4">
-        <f t="shared" si="4"/>
+      <c r="BK4">
+        <f t="shared" si="9"/>
         <v>564.74888691460376</v>
       </c>
-      <c r="AB4">
-        <f>He!$AW$4</f>
+      <c r="BL4">
+        <f>He!$BB$4</f>
         <v>328.28160493536751</v>
       </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4:AC6" si="9">(AA4-AB4)/($B$13+AA4-AB4)*100</f>
+      <c r="BM4">
+        <f t="shared" ref="BM4:BM6" si="21">(BK4-BL4)/($B$13+BK4-BL4)*100</f>
         <v>0.83086226110196015</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="BO4" s="4">
         <v>15.022</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="BP4" s="4">
         <v>1.4831000000000001</v>
       </c>
-      <c r="AG4">
-        <f t="shared" ref="AG4:AG8" si="10">(AF4/100)*($B$13)/(1-AF4/100)</f>
+      <c r="BQ4">
+        <f t="shared" ref="BQ4:BQ8" si="22">(BP4/100)*($B$13)/(1-BP4/100)</f>
         <v>424.89171299543534</v>
       </c>
-      <c r="AH4">
-        <f>He!$BB$4</f>
+      <c r="BR4">
+        <f>He!$BG$4</f>
         <v>248.04850652803421</v>
       </c>
-      <c r="AI4">
-        <f t="shared" ref="AI4:AI8" si="11">(AG4-AH4)/($B$13+AG4-AH4)*100</f>
+      <c r="BS4">
+        <f t="shared" ref="BS4:BS8" si="23">(BQ4-BR4)/($B$13+BQ4-BR4)*100</f>
         <v>0.62266885944826678</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:71">
       <c r="A5" s="4">
         <v>30.001799999999999</v>
       </c>
@@ -2482,101 +5254,186 @@
         <v>556.85294587741328</v>
       </c>
       <c r="E5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.5644462668743744</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f>He!$I$5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4">
         <v>29.989899999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="N5" s="4">
         <v>3.9975999999999998</v>
       </c>
-      <c r="I5" s="2">
+      <c r="O5" s="2">
         <f t="shared" si="1"/>
         <v>1175.2650183745407</v>
       </c>
-      <c r="J5" s="2">
+      <c r="P5" s="2">
         <f>He!$N$5</f>
         <v>626.79997516693322</v>
       </c>
-      <c r="K5" s="2">
-        <f t="shared" si="6"/>
+      <c r="Q5" s="2">
+        <f t="shared" si="13"/>
         <v>1.9062149954269736</v>
       </c>
-      <c r="M5" s="4">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <f>He!$S$5</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <f>He!$X$5</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
         <v>30.001000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="AF5" s="4">
         <v>3.5954999999999999</v>
       </c>
-      <c r="O5" s="2">
-        <f t="shared" si="2"/>
+      <c r="AG5" s="2">
+        <f t="shared" si="4"/>
         <v>1052.6416505453583</v>
       </c>
-      <c r="P5" s="2">
+      <c r="AH5" s="2">
         <f>He!$AC$5</f>
         <v>556.80467323352707</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="AI5" s="2">
+        <f t="shared" si="16"/>
+        <v>1.7264616707383602</v>
+      </c>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <f>He!$AH$5</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2">
+        <f>He!$AM$5</f>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AW5" s="4">
+        <v>30.002600000000001</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>3.2578999999999998</v>
+      </c>
+      <c r="AY5">
         <f t="shared" si="7"/>
-        <v>1.7264616707383602</v>
-      </c>
-      <c r="S5" s="4">
-        <v>30.002600000000001</v>
-      </c>
-      <c r="T5" s="4">
-        <v>3.2578999999999998</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="3"/>
         <v>950.47522846826769</v>
       </c>
-      <c r="V5">
-        <f>He!$AM$5</f>
+      <c r="AZ5">
+        <f>He!$AR$5</f>
         <v>469.71510889252869</v>
       </c>
-      <c r="W5">
+      <c r="BA5">
+        <f t="shared" si="19"/>
+        <v>1.6748445817802733</v>
+      </c>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5">
         <f t="shared" si="8"/>
-        <v>1.6748445817802733</v>
-      </c>
-      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <f>He!$AW$5</f>
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BI5" s="4">
         <v>30.0427</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="BJ5" s="4">
         <v>3.024</v>
       </c>
-      <c r="AA5">
-        <f t="shared" si="4"/>
+      <c r="BK5">
+        <f t="shared" si="9"/>
         <v>880.10823296485728</v>
       </c>
-      <c r="AB5">
-        <f>He!$AW$5</f>
+      <c r="BL5">
+        <f>He!$BB$5</f>
         <v>460.38254361446803</v>
       </c>
-      <c r="AC5">
-        <f t="shared" si="9"/>
+      <c r="BM5">
+        <f t="shared" si="21"/>
         <v>1.4653320378167196</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="BO5" s="4">
         <v>30.031500000000001</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="BP5" s="4">
         <v>2.3871000000000002</v>
       </c>
-      <c r="AG5">
-        <f t="shared" si="10"/>
+      <c r="BQ5">
+        <f t="shared" si="22"/>
         <v>690.21113397921795</v>
       </c>
-      <c r="AH5">
-        <f>He!$BB$5</f>
+      <c r="BR5">
+        <f>He!$BG$5</f>
         <v>332.8423882002067</v>
       </c>
-      <c r="AI5">
-        <f t="shared" si="11"/>
+      <c r="BS5">
+        <f t="shared" si="23"/>
         <v>1.250355603881947</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:71">
       <c r="A6" s="4">
         <v>49.981999999999999</v>
       </c>
@@ -2590,91 +5447,175 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>49.976599999999998</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>He!$I$6</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>49.976599999999998</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <f>He!$N$6</f>
         <v>0</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>49.9908</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="2">
-        <f t="shared" ref="O6:O8" si="12">(N6/100)*($B$13)/(1-N6/100)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <f>He!$AC$6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" ref="Q6:Q8" si="13">(O6-P6)/($B$13+O6-P6)*100</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>50.025399999999998</v>
-      </c>
+      <c r="Q6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>He!$AM$6</f>
+        <f>He!$S$6</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>50.030700000000003</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB6">
+        <f>He!$X$6</f>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>49.9908</v>
+      </c>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="2">
+        <f t="shared" ref="AG6:AG8" si="24">(AF6/100)*($B$13)/(1-AF6/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <f>He!$AC$6</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <f t="shared" ref="AI6:AI8" si="25">(AG6-AH6)/($B$13+AG6-AH6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <f>He!$AH$6</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2">
+        <f>He!$AM$6</f>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>50.025399999999998</v>
+      </c>
+      <c r="AX6" s="4"/>
+      <c r="AY6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <f>He!$AR$6</f>
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF6">
         <f>He!$AW$6</f>
         <v>0</v>
       </c>
-      <c r="AC6">
+      <c r="BG6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BI6" s="4">
+        <v>50.030700000000003</v>
+      </c>
+      <c r="BJ6" s="4"/>
+      <c r="BK6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="BL6">
+        <f>He!$BB$6</f>
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BO6" s="4">
         <v>50.021999999999998</v>
       </c>
-      <c r="AF6" s="4"/>
-      <c r="AG6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <f>He!$BB$6</f>
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="11"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <f>He!$BG$6</f>
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:71">
       <c r="A7" s="4">
         <v>69.981999999999999</v>
       </c>
@@ -2691,88 +5632,172 @@
         <f>(C7-D7)/($B$13+C7-D7)*100</f>
         <v>0</v>
       </c>
-      <c r="G7" s="4">
-        <v>70.035600000000002</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>He!$I$7</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>70.035600000000002</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <f>He!$N$7</f>
         <v>0</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>70.002399999999994</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <f>He!$AC$7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S7" s="4">
-        <v>69.965800000000002</v>
-      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>He!$AM$7</f>
+        <f>He!$S$7</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>69.904600000000002</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7">
-        <f t="shared" ref="AA7:AA8" si="14">(Z7/100)*($B$13)/(1-Z7/100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB7">
+        <f>He!$X$7</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>70.002399999999994</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <f>He!$AC$7</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <f>He!$AH$7</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <f>He!$AM$7</f>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>69.965800000000002</v>
+      </c>
+      <c r="AX7" s="4"/>
+      <c r="AY7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <f>He!$AR$7</f>
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF7">
         <f>He!$AW$7</f>
         <v>0</v>
       </c>
-      <c r="AC7">
-        <f t="shared" ref="AC7:AC8" si="15">(AA7-AB7)/($B$13+AA7-AB7)*100</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="4">
+      <c r="BG7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BI7" s="4">
+        <v>69.904600000000002</v>
+      </c>
+      <c r="BJ7" s="4"/>
+      <c r="BK7">
+        <f t="shared" ref="BK7:BK8" si="26">(BJ7/100)*($B$13)/(1-BJ7/100)</f>
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <f>He!$BB$7</f>
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" ref="BM7:BM8" si="27">(BK7-BL7)/($B$13+BK7-BL7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="BO7" s="4">
         <v>70.001999999999995</v>
       </c>
-      <c r="AF7" s="4"/>
-      <c r="AG7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <f>He!$BB$7</f>
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="11"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <f>He!$BG$7</f>
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:71">
       <c r="A8" s="4">
         <v>100.0042</v>
       </c>
@@ -2789,64 +5814,58 @@
         <f>(C8-D8)/($B$13+C8-D8)*100</f>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>99.998699999999999</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>He!$N$8</f>
+        <f>He!$I$8</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M8" s="4">
-        <v>100.00069999999999</v>
+        <v>99.998699999999999</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>He!$AC$8</f>
+        <f>He!$N$8</f>
         <v>0</v>
       </c>
       <c r="Q8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S8" s="4">
-        <v>100.03789999999999</v>
-      </c>
+      <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>He!$AM$8</f>
+        <f>He!$S$8</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>99.887299999999996</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>He!$AW$8</f>
+        <f>He!$X$8</f>
         <v>0</v>
       </c>
       <c r="AC8">
@@ -2854,28 +5873,118 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4">
-        <v>100.0027</v>
+        <v>100.00069999999999</v>
       </c>
       <c r="AF8" s="4"/>
       <c r="AG8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH8">
+        <f>He!$AC$8</f>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f>He!$AH$8</f>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <f>He!$AM$8</f>
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>100.03789999999999</v>
+      </c>
+      <c r="AX8" s="4"/>
+      <c r="AY8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <f>He!$AR$8</f>
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <f>He!$AW$8</f>
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BI8" s="4">
+        <v>99.887299999999996</v>
+      </c>
+      <c r="BJ8" s="4"/>
+      <c r="BK8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BL8">
         <f>He!$BB$8</f>
         <v>0</v>
       </c>
-      <c r="AI8">
-        <f t="shared" si="11"/>
+      <c r="BM8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BO8" s="4">
+        <v>100.0027</v>
+      </c>
+      <c r="BP8" s="4"/>
+      <c r="BQ8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <f>He!$BG$8</f>
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:71">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:71">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2883,7 +5992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:71">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2902,13 +6011,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323AA30-3DDC-4545-83D0-069D8AFD5649}">
-  <dimension ref="A1:BB20"/>
+  <dimension ref="A1:BG20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AW3" sqref="AW3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2952,25 +6063,31 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AJ1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AO1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AT1" t="s">
         <v>33</v>
-      </c>
-      <c r="AP1" s="1"/>
-      <c r="AT1" t="s">
-        <v>17</v>
       </c>
       <c r="AU1" s="1"/>
       <c r="AY1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ1" s="1"/>
+      <c r="BD1" t="s">
         <v>16</v>
       </c>
-      <c r="AZ1" s="1"/>
+      <c r="BE1" s="1"/>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:59">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3103,8 +6220,20 @@
       <c r="BB2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BD2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:59">
       <c r="A3" s="4">
         <v>4.9913999999999996</v>
       </c>
@@ -3126,7 +6255,6 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>H3*($H$15 + $H$16*EXP(-(F3-$H$20)/$H$17)+$H$18*EXP(-(F3-$H$20)/$H$19))*2</f>
         <v>0</v>
       </c>
       <c r="K3" s="4">
@@ -3140,7 +6268,7 @@
         <v>86446.241549900165</v>
       </c>
       <c r="N3">
-        <f>M3*($M$15 + $M$16*EXP(-(K3-$M$20)/$M$17)+$M$18*EXP(-(K3-$M$20)/$M$19))*2</f>
+        <f t="shared" ref="N3:N8" si="2">M3*($M$15 + $M$16*EXP(-(K3-$M$20)/$M$17)+$M$18*EXP(-(K3-$M$20)/$M$19))*2</f>
         <v>249.34046170314397</v>
       </c>
       <c r="P3" s="4"/>
@@ -3184,63 +6312,73 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>AG3*($AG$15 + $AG$16*EXP(-(AE3-$AG$20)/$AG$17)+$AG$18*EXP(-(AE3-$AL$20)/$AG$19))*2</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>5.0301999999999998</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>67.467100000000002</v>
-      </c>
+        <f>AG3*($AG$15 + $AG$16*EXP(-(AE3-$AG$20)/$AG$17)+$AG$18*EXP(-(AE3-$AG$20)/$AG$19))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL8" si="2">AK3/($AK$15 + $AK$16*EXP(-(AJ3-$AK$20)/$AK$17)+$AK$18*EXP(-(AJ3-$AK$20)/$AK$19))</f>
-        <v>72655.766181308456</v>
+        <f>AK3/($AK$15 + $AK$16*EXP(-(AJ3-$AK$20)/$AK$17)+$AK$18*EXP(-(AJ3-$AK$20)/$AK$19))</f>
+        <v>0</v>
       </c>
       <c r="AM3">
         <f>AL3*($AL$15 + $AL$16*EXP(-(AJ3-$AL$20)/$AL$17)+$AL$18*EXP(-(AJ3-$AL$20)/$AL$19))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>5.0301999999999998</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>67.467100000000002</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ8" si="3">AP3/($AP$15 + $AP$16*EXP(-(AO3-$AP$20)/$AP$17)+$AP$18*EXP(-(AO3-$AP$20)/$AP$19))</f>
+        <v>72655.766181308456</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR8" si="4">AQ3*($AQ$15 + $AQ$16*EXP(-(AO3-$AQ$20)/$AQ$17)+$AQ$18*EXP(-(AO3-$AQ$20)/$AQ$19))*2</f>
         <v>174.05310223785571</v>
       </c>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3">
-        <f>AP3/($AP$15 + $AP$16*EXP(-(AO3-$AP$20)/$AP$17)+$AP$18*EXP(-(AO3-$AP$20)/$AP$19))</f>
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <f>AQ3*($AQ$15 + $AQ$16*EXP(-(AO3-$AQ$20)/$AQ$17)+$AQ$18*EXP(-(AO3-$AQ$20)/$AQ$19))*2</f>
-        <v>0</v>
-      </c>
-      <c r="AT3" s="4">
-        <v>4.9870999999999999</v>
-      </c>
-      <c r="AU3" s="4">
-        <v>58.651400000000002</v>
-      </c>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
       <c r="AV3">
         <f>AU3/($AU$15 + $AU$16*EXP(-(AT3-$AU$20)/$AU$17)+$AU$18*EXP(-(AT3-$AU$20)/$AU$19))</f>
-        <v>65599.943764182492</v>
+        <v>0</v>
       </c>
       <c r="AW3">
         <f>AV3*($AV$15 + $AV$16*EXP(-(AT3-$AV$20)/$AV$17)+$AV$18*EXP(-(AT3-$AV$20)/$AV$19))*2</f>
-        <v>149.06390248152044</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="4">
-        <v>5.0431999999999997</v>
+        <v>4.9870999999999999</v>
       </c>
       <c r="AZ3" s="4">
-        <v>53.0443</v>
+        <v>58.651400000000002</v>
       </c>
       <c r="BA3">
         <f>AZ3/($AZ$15 + $AZ$16*EXP(-(AY3-$AZ$20)/$AZ$17)+$AZ$18*EXP(-(AY3-$AZ$20)/$AZ$19))</f>
+        <v>65599.943764182492</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" ref="BB3:BB8" si="5">BA3*($BA$15 + $BA$16*EXP(-(AY3-$BA$20)/$BA$17)+$BA$18*EXP(-(AY3-$BA$20)/$BA$19))*2</f>
+        <v>149.06390248152044</v>
+      </c>
+      <c r="BD3" s="4">
+        <v>5.0431999999999997</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>53.0443</v>
+      </c>
+      <c r="BF3">
+        <f>BE3/($BE$15 + $BE$16*EXP(-(BD3-$BE$20)/$BE$17)+$BE$18*EXP(-(BD3-$BE$20)/$BE$19))</f>
         <v>65584.138081626719</v>
       </c>
-      <c r="BB3">
-        <f>BA3*($BA$15 + $BA$16*EXP(-(AY3-$BA$20)/$BA$17)+$BA$18*EXP(-(AY3-$BA$20)/$BA$19))*2</f>
+      <c r="BG3">
+        <f>BF3*($BF$15 + $BF$16*EXP(-(BD3-$BF$20)/$BF$17)+$BF$18*EXP(-(BD3-$BF$20)/$BF$19))*2</f>
         <v>132.05443998416902</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:59">
       <c r="A4" s="4">
         <v>14.9946</v>
       </c>
@@ -3252,17 +6390,16 @@
         <v>52430.660889315914</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D8" si="3">C4*($C$15 + $C$16*EXP(-(A4-$C$20)/$C$17)+$C$18*EXP(-(A4-$C$20)/$C$19))*2</f>
+        <f t="shared" ref="D4:D8" si="6">C4*($C$15 + $C$16*EXP(-(A4-$C$20)/$C$17)+$C$18*EXP(-(A4-$C$20)/$C$19))*2</f>
         <v>376.34161517421109</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4">
-        <f t="shared" ref="H4:H7" si="4">G4/($G$15 + $G$16*EXP(-(F4-$G$20)/$G$17)+$G$18*EXP(-(F4-$G$20)/$G$19))</f>
+        <f t="shared" ref="H4:H7" si="7">G4/($G$15 + $G$16*EXP(-(F4-$G$20)/$G$17)+$G$18*EXP(-(F4-$G$20)/$G$19))</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I8" si="5">H4*($H$15 + $H$16*EXP(-(F4-$H$20)/$H$17)+$H$18*EXP(-(F4-$H$20)/$H$19))*2</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
@@ -3276,27 +6413,27 @@
         <v>54337.814523332861</v>
       </c>
       <c r="N4">
-        <f>M4*($M$15 + $M$16*EXP(-(K4-$M$20)/$M$17)+$M$18*EXP(-(K4-$M$20)/$M$19))*2</f>
+        <f t="shared" si="2"/>
         <v>428.02464349505459</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4">
-        <f t="shared" ref="R4:R7" si="6">Q4/($Q$15 + $Q$16*EXP(-(P4-$Q$20)/$Q$17)+$Q$18*EXP(-(P4-$Q$20)/$Q$19))</f>
+        <f t="shared" ref="R4:R7" si="8">Q4/($Q$15 + $Q$16*EXP(-(P4-$Q$20)/$Q$17)+$Q$18*EXP(-(P4-$Q$20)/$Q$19))</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S8" si="7">R4*($R$15 + $R$16*EXP(-(P4-$R$20)/$R$17)+$R$18*EXP(-(P4-$R$20)/$R$19))*2</f>
+        <f t="shared" ref="S4:S8" si="9">R4*($R$15 + $R$16*EXP(-(P4-$R$20)/$R$17)+$R$18*EXP(-(P4-$R$20)/$R$19))*2</f>
         <v>0</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4">
-        <f t="shared" ref="W4:W8" si="8">V4/($V$15 + $V$16*EXP(-(U4-$V$20)/$V$17)+$V$18*EXP(-(U4-$V$20)/$V$19))</f>
+        <f t="shared" ref="W4:W8" si="10">V4/($V$15 + $V$16*EXP(-(U4-$V$20)/$V$17)+$V$18*EXP(-(U4-$V$20)/$V$19))</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X8" si="9">W4*($W$15 + $W$16*EXP(-(U4-$W$20)/$W$17)+$W$18*EXP(-(U4-$W$20)/$W$19))*2</f>
+        <f t="shared" ref="X4:X8" si="11">W4*($W$15 + $W$16*EXP(-(U4-$W$20)/$W$17)+$W$18*EXP(-(U4-$W$20)/$W$19))*2</f>
         <v>0</v>
       </c>
       <c r="Z4" s="4">
@@ -3306,77 +6443,87 @@
         <v>106.50709999999999</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB8" si="10">AA4/($AA$15 + $AA$16*EXP(-(Z4-$AA$20)/$AA$17)+$AA$18*EXP(-(Z4-$AA$20)/$AA$19))</f>
+        <f t="shared" ref="AB4:AB8" si="12">AA4/($AA$15 + $AA$16*EXP(-(Z4-$AA$20)/$AA$17)+$AA$18*EXP(-(Z4-$AA$20)/$AA$19))</f>
         <v>49544.266973580001</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC8" si="11">AB4*($AB$15 + $AB$16*EXP(-(Z4-$AB$20)/$AB$17)+$AB$18*EXP(-(Z4-$AB$20)/$AB$19))*2</f>
+        <f t="shared" ref="AC4:AC8" si="13">AB4*($AB$15 + $AB$16*EXP(-(Z4-$AB$20)/$AB$17)+$AB$18*EXP(-(Z4-$AB$20)/$AB$19))*2</f>
         <v>356.54205315214972</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG8" si="12">AF4/($AF$15 + $AF$16*EXP(-(AE4-$AF$20)/$AF$17)+$AF$18*EXP(-(AE4-$AF$20)/$AF$19))</f>
+        <f t="shared" ref="AG4:AG8" si="14">AF4/($AF$15 + $AF$16*EXP(-(AE4-$AF$20)/$AF$17)+$AF$18*EXP(-(AE4-$AF$20)/$AF$19))</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH8" si="13">AG4*($AG$15 + $AG$16*EXP(-(AE4-$AG$20)/$AG$17)+$AG$18*EXP(-(AE4-$AL$20)/$AG$19))*2</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="4">
+        <f t="shared" ref="AH4:AH8" si="15">AG4*($AG$15 + $AG$16*EXP(-(AE4-$AG$20)/$AG$17)+$AG$18*EXP(-(AE4-$AG$20)/$AG$19))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4">
+        <f t="shared" ref="AL4:AL8" si="16">AK4/($AK$15 + $AK$16*EXP(-(AJ4-$AK$20)/$AK$17)+$AK$18*EXP(-(AJ4-$AK$20)/$AK$19))</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" ref="AM4:AM8" si="17">AL4*($AL$15 + $AL$16*EXP(-(AJ4-$AL$20)/$AL$17)+$AL$18*EXP(-(AJ4-$AL$20)/$AL$19))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4">
         <v>15.0124</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AP4" s="4">
         <v>99.955600000000004</v>
       </c>
-      <c r="AL4">
-        <f t="shared" si="2"/>
+      <c r="AQ4">
+        <f t="shared" si="3"/>
         <v>48762.769582689958</v>
       </c>
-      <c r="AM4">
-        <f>AL4*($AL$15 + $AL$16*EXP(-(AJ4-$AL$20)/$AL$17)+$AL$18*EXP(-(AJ4-$AL$20)/$AL$19))*2</f>
+      <c r="AR4">
+        <f t="shared" si="4"/>
         <v>325.24517773751114</v>
       </c>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ8" si="14">AP4/($AU$15 + $AU$16*EXP(-(AO4-$AU$20)/$AU$17)+$AU$18*EXP(-(AO4-$AU$20)/$AU$19))</f>
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <f>AQ4*($AV$15 + $AV$16*EXP(-(AO4-$AV$20)/$AV$17)+$AV$18*EXP(-(AO4-$AV$20)/$AV$19))*2</f>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="4">
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4">
+        <f t="shared" ref="AV4:AV8" si="18">AU4/($AZ$15 + $AZ$16*EXP(-(AT4-$AZ$20)/$AZ$17)+$AZ$18*EXP(-(AT4-$AZ$20)/$AZ$19))</f>
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <f>AV4*($BA$15 + $BA$16*EXP(-(AT4-$BA$20)/$BA$17)+$BA$18*EXP(-(AT4-$BA$20)/$BA$19))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="4">
         <v>14.937799999999999</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AZ4" s="4">
         <v>102.6739</v>
       </c>
-      <c r="AV4">
-        <f t="shared" ref="AV4:AV8" si="15">AU4/($AU$15 + $AU$16*EXP(-(AT4-$AU$20)/$AU$17)+$AU$18*EXP(-(AT4-$AU$20)/$AU$19))</f>
+      <c r="BA4">
+        <f t="shared" ref="BA4:BA8" si="19">AZ4/($AZ$15 + $AZ$16*EXP(-(AY4-$AZ$20)/$AZ$17)+$AZ$18*EXP(-(AY4-$AZ$20)/$AZ$19))</f>
         <v>51953.060636807</v>
       </c>
-      <c r="AW4">
-        <f>AV4*($AV$15 + $AV$16*EXP(-(AT4-$AV$20)/$AV$17)+$AV$18*EXP(-(AT4-$AV$20)/$AV$19))*2</f>
+      <c r="BB4">
+        <f t="shared" si="5"/>
         <v>328.28160493536751</v>
       </c>
-      <c r="AY4" s="4">
+      <c r="BD4" s="4">
         <v>14.9808</v>
       </c>
-      <c r="AZ4" s="4">
+      <c r="BE4" s="4">
         <v>81.668300000000002</v>
       </c>
-      <c r="BA4">
-        <f t="shared" ref="BA4:BA8" si="16">AZ4/($AZ$15 + $AZ$16*EXP(-(AY4-$AZ$20)/$AZ$17)+$AZ$18*EXP(-(AY4-$AZ$20)/$AZ$19))</f>
+      <c r="BF4">
+        <f t="shared" ref="BF4:BF8" si="20">BE4/($BE$15 + $BE$16*EXP(-(BD4-$BE$20)/$BE$17)+$BE$18*EXP(-(BD4-$BE$20)/$BE$19))</f>
         <v>44607.765789132463</v>
       </c>
-      <c r="BB4">
-        <f t="shared" ref="BB4:BB8" si="17">BA4*($BA$15 + $BA$16*EXP(-(AY4-$BA$20)/$BA$17)+$BA$18*EXP(-(AY4-$BA$20)/$BA$19))*2</f>
+      <c r="BG4">
+        <f t="shared" ref="BG4:BG8" si="21">BF4*($BF$15 + $BF$16*EXP(-(BD4-$BF$20)/$BF$17)+$BF$18*EXP(-(BD4-$BF$20)/$BF$19))*2</f>
         <v>248.04850652803421</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:59">
       <c r="A5" s="4">
         <v>29.9819</v>
       </c>
@@ -3388,17 +6535,16 @@
         <v>42233.791026056919</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>556.85294587741328</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
@@ -3412,27 +6558,27 @@
         <v>43658.760924306909</v>
       </c>
       <c r="N5">
-        <f>M5*($M$15 + $M$16*EXP(-(K5-$M$20)/$M$17)+$M$18*EXP(-(K5-$M$20)/$M$19))*2</f>
+        <f t="shared" si="2"/>
         <v>626.79997516693322</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z5" s="4">
@@ -3442,77 +6588,87 @@
         <v>130.6174</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42179.830999279919</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>556.80467323352707</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="4">
         <v>29.9939</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AP5" s="4">
         <v>114.25369999999999</v>
       </c>
-      <c r="AL5">
-        <f t="shared" si="2"/>
+      <c r="AQ5">
+        <f t="shared" si="3"/>
         <v>38130.824053401207</v>
       </c>
-      <c r="AM5">
-        <f>AL5*($AL$15 + $AL$16*EXP(-(AJ5-$AL$20)/$AL$17)+$AL$18*EXP(-(AJ5-$AL$20)/$AL$19))*2</f>
+      <c r="AR5">
+        <f t="shared" si="4"/>
         <v>469.71510889252869</v>
       </c>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <f>AQ5*($AV$15 + $AV$16*EXP(-(AO5-$AV$20)/$AV$17)+$AV$18*EXP(-(AO5-$AV$20)/$AV$19))*2</f>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="4">
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <f>AV5*($BA$15 + $BA$16*EXP(-(AT5-$BA$20)/$BA$17)+$BA$18*EXP(-(AT5-$BA$20)/$BA$19))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AY5" s="4">
         <v>29.989899999999999</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AZ5" s="4">
         <v>114.31529999999999</v>
       </c>
-      <c r="AV5">
-        <f t="shared" si="15"/>
+      <c r="BA5">
+        <f t="shared" si="19"/>
         <v>39217.410125887356</v>
       </c>
-      <c r="AW5">
-        <f>AV5*($AV$15 + $AV$16*EXP(-(AT5-$AV$20)/$AV$17)+$AV$18*EXP(-(AT5-$AV$20)/$AV$19))*2</f>
+      <c r="BB5">
+        <f t="shared" si="5"/>
         <v>460.38254361446803</v>
       </c>
-      <c r="AY5" s="4">
+      <c r="BD5" s="4">
         <v>30.0077</v>
       </c>
-      <c r="AZ5" s="4">
+      <c r="BE5" s="4">
         <v>88.137500000000003</v>
       </c>
-      <c r="BA5">
-        <f t="shared" si="16"/>
+      <c r="BF5">
+        <f t="shared" si="20"/>
         <v>32047.780701292191</v>
       </c>
-      <c r="BB5">
-        <f t="shared" si="17"/>
+      <c r="BG5">
+        <f t="shared" si="21"/>
         <v>332.8423882002067</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:59">
       <c r="A6" s="4">
         <v>50.028500000000001</v>
       </c>
@@ -3522,17 +6678,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K6" s="4">
@@ -3544,27 +6699,27 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f>M6*($M$15 + $M$16*EXP(-(K6-$M$20)/$M$17)+$M$18*EXP(-(K6-$M$20)/$M$19))*2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z6" s="4">
@@ -3572,71 +6727,81 @@
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>50.005499999999998</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
-      <c r="AL6" s="3">
-        <f t="shared" si="2"/>
+      <c r="AL6">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM6">
         <f>AL6*($AL$15 + $AL$16*EXP(-(AJ6-$AL$20)/$AL$17)+$AL$18*EXP(-(AJ6-$AL$20)/$AL$19))*2</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="4"/>
+      <c r="AO6" s="4">
+        <v>50.005499999999998</v>
+      </c>
       <c r="AP6" s="4"/>
-      <c r="AQ6">
-        <f t="shared" si="14"/>
+      <c r="AQ6" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR6">
-        <f>AQ6*($AV$15 + $AV$16*EXP(-(AO6-$AV$20)/$AV$17)+$AV$18*EXP(-(AO6-$AV$20)/$AV$19))*2</f>
-        <v>0</v>
-      </c>
-      <c r="AT6" s="4">
-        <v>49.951799999999999</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
       <c r="AV6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AW6">
-        <f>AV6*($AV$15 + $AV$16*EXP(-(AT6-$AV$20)/$AV$17)+$AV$18*EXP(-(AT6-$AV$20)/$AV$19))*2</f>
+        <f>AV6*($BA$15 + $BA$16*EXP(-(AT6-$BA$20)/$BA$17)+$BA$18*EXP(-(AT6-$BA$20)/$BA$19))*2</f>
         <v>0</v>
       </c>
       <c r="AY6" s="4">
-        <v>49.998899999999999</v>
+        <v>49.951799999999999</v>
       </c>
       <c r="AZ6" s="4"/>
       <c r="BA6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BB6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BD6" s="4">
+        <v>49.998899999999999</v>
+      </c>
+      <c r="BE6" s="4"/>
+      <c r="BF6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:59">
       <c r="A7" s="4">
         <v>70.024699999999996</v>
       </c>
@@ -3646,17 +6811,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="4">
@@ -3668,27 +6832,27 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f>M7*($M$15 + $M$16*EXP(-(K7-$M$20)/$M$17)+$M$18*EXP(-(K7-$M$20)/$M$19))*2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z7" s="4">
@@ -3696,71 +6860,81 @@
       </c>
       <c r="AA7" s="4"/>
       <c r="AB7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="4">
         <v>70.029899999999998</v>
       </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <f>AL7*($AL$15 + $AL$16*EXP(-(AJ7-$AL$20)/$AL$17)+$AL$18*EXP(-(AJ7-$AL$20)/$AL$19))*2</f>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR7">
-        <f>AQ7*($AV$15 + $AV$16*EXP(-(AO7-$AV$20)/$AV$17)+$AV$18*EXP(-(AO7-$AV$20)/$AV$19))*2</f>
-        <v>0</v>
-      </c>
-      <c r="AT7" s="4">
-        <v>70.017799999999994</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
       <c r="AV7" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AW7">
-        <f>AV7*($AV$15 + $AV$16*EXP(-(AT7-$AV$20)/$AV$17)+$AV$18*EXP(-(AT7-$AV$20)/$AV$19))*2</f>
+        <f>AV7*($BA$15 + $BA$16*EXP(-(AT7-$BA$20)/$BA$17)+$BA$18*EXP(-(AT7-$BA$20)/$BA$19))*2</f>
         <v>0</v>
       </c>
       <c r="AY7" s="4">
+        <v>70.017799999999994</v>
+      </c>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BD7" s="4">
         <v>70.036600000000007</v>
       </c>
-      <c r="AZ7" s="4"/>
-      <c r="BA7">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <f t="shared" si="17"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:59">
       <c r="A8" s="4">
         <v>100.0535</v>
       </c>
@@ -3770,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F8" s="4"/>
@@ -3780,7 +6954,6 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K8" s="4">
@@ -3792,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f>M8*($M$15 + $M$16*EXP(-(K8-$M$20)/$M$17)+$M$18*EXP(-(K8-$M$20)/$M$19))*2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P8" s="4"/>
@@ -3802,17 +6975,17 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z8" s="4">
@@ -3820,81 +6993,91 @@
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>100.018</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>AL8*($AL$15 + $AL$16*EXP(-(AJ8-$AL$20)/$AL$17)+$AL$18*EXP(-(AJ8-$AL$20)/$AL$19))*2</f>
-        <v>0</v>
-      </c>
-      <c r="AO8" s="4"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>100.018</v>
+      </c>
       <c r="AP8" s="4"/>
       <c r="AQ8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR8">
-        <f>AQ8*($AV$15 + $AV$16*EXP(-(AO8-$AV$20)/$AV$17)+$AV$18*EXP(-(AO8-$AV$20)/$AV$19))*2</f>
-        <v>0</v>
-      </c>
-      <c r="AT8" s="4">
-        <v>99.965500000000006</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
       <c r="AV8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AW8">
-        <f>AV8*($AV$15 + $AV$16*EXP(-(AT8-$AV$20)/$AV$17)+$AV$18*EXP(-(AT8-$AV$20)/$AV$19))*2</f>
+        <f>AV8*($BA$15 + $BA$16*EXP(-(AT8-$BA$20)/$BA$17)+$BA$18*EXP(-(AT8-$BA$20)/$BA$19))*2</f>
         <v>0</v>
       </c>
       <c r="AY8" s="4">
-        <v>100.0183</v>
+        <v>99.965500000000006</v>
       </c>
       <c r="AZ8" s="4"/>
       <c r="BA8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BB8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>100.0183</v>
+      </c>
+      <c r="BE8" s="4"/>
+      <c r="BF8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:59">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:59">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:59">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3902,7 +7085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:59">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4002,8 +7185,17 @@
       <c r="BA14" t="s">
         <v>10</v>
       </c>
+      <c r="BD14" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:59">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -4071,40 +7263,49 @@
         <v>3</v>
       </c>
       <c r="AK15">
-        <v>6.6588000000000003E-3</v>
+        <v>6.5160000000000001E-3</v>
       </c>
       <c r="AL15">
-        <v>2.4473999999999999E-2</v>
+        <v>2.4364E-2</v>
       </c>
       <c r="AO15" t="s">
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>6.3337000000000003E-3</v>
+        <v>6.6588000000000003E-3</v>
       </c>
       <c r="AQ15">
-        <v>2.3081999999999998E-2</v>
+        <v>2.4473999999999999E-2</v>
       </c>
       <c r="AT15" t="s">
         <v>3</v>
       </c>
       <c r="AU15">
-        <v>6.4111000000000003E-3</v>
+        <v>6.3337000000000003E-3</v>
       </c>
       <c r="AV15">
-        <v>2.4461E-2</v>
+        <v>2.3081999999999998E-2</v>
       </c>
       <c r="AY15" t="s">
         <v>3</v>
       </c>
       <c r="AZ15">
+        <v>6.4111000000000003E-3</v>
+      </c>
+      <c r="BA15">
+        <v>2.4461E-2</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE15">
         <v>6.6043999999999999E-3</v>
       </c>
-      <c r="BA15">
+      <c r="BF15">
         <v>2.4445000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:59">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4172,40 +7373,49 @@
         <v>4</v>
       </c>
       <c r="AK16">
-        <v>-1.5150000000000001E-3</v>
+        <v>-1.3965E-3</v>
       </c>
       <c r="AL16">
-        <v>-1.2303E-2</v>
+        <v>-1.2224E-2</v>
       </c>
       <c r="AO16" t="s">
         <v>4</v>
       </c>
       <c r="AP16">
-        <v>-1.2022999999999999E-3</v>
+        <v>-1.5150000000000001E-3</v>
       </c>
       <c r="AQ16">
-        <v>-1.1601E-2</v>
+        <v>-1.2303E-2</v>
       </c>
       <c r="AT16" t="s">
         <v>4</v>
       </c>
       <c r="AU16">
-        <v>-1.2712000000000001E-3</v>
+        <v>-1.2022999999999999E-3</v>
       </c>
       <c r="AV16">
-        <v>-1.2295E-2</v>
+        <v>-1.1601E-2</v>
       </c>
       <c r="AY16" t="s">
         <v>4</v>
       </c>
       <c r="AZ16">
+        <v>-1.2712000000000001E-3</v>
+      </c>
+      <c r="BA16">
+        <v>-1.2295E-2</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE16">
         <v>-1.3366999999999999E-3</v>
       </c>
-      <c r="BA16">
+      <c r="BF16">
         <v>-1.2352999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:58">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -4273,40 +7483,49 @@
         <v>5</v>
       </c>
       <c r="AK17">
-        <v>10.583</v>
+        <v>9.6555999999999997</v>
       </c>
       <c r="AL17">
-        <v>82.5</v>
+        <v>79.23</v>
       </c>
       <c r="AO17" t="s">
         <v>5</v>
       </c>
       <c r="AP17">
-        <v>8.3945000000000007</v>
+        <v>10.583</v>
       </c>
       <c r="AQ17">
-        <v>101.36</v>
+        <v>82.5</v>
       </c>
       <c r="AT17" t="s">
         <v>5</v>
       </c>
       <c r="AU17">
-        <v>9.6111000000000004</v>
+        <v>8.3945000000000007</v>
       </c>
       <c r="AV17">
-        <v>148.87</v>
+        <v>101.36</v>
       </c>
       <c r="AY17" t="s">
         <v>5</v>
       </c>
       <c r="AZ17">
+        <v>9.6111000000000004</v>
+      </c>
+      <c r="BA17">
+        <v>148.87</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE17">
         <v>11.343999999999999</v>
       </c>
-      <c r="BA17">
+      <c r="BF17">
         <v>172.71</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:58">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4374,40 +7593,49 @@
         <v>6</v>
       </c>
       <c r="AK18">
-        <v>-4.9135000000000003E-3</v>
+        <v>-4.8821000000000003E-3</v>
       </c>
       <c r="AL18">
-        <v>-1.1896E-2</v>
+        <v>-1.1859E-2</v>
       </c>
       <c r="AO18" t="s">
         <v>6</v>
       </c>
       <c r="AP18">
-        <v>-4.9106999999999996E-3</v>
+        <v>-4.9135000000000003E-3</v>
       </c>
       <c r="AQ18">
-        <v>-1.1212E-2</v>
+        <v>-1.1896E-2</v>
       </c>
       <c r="AT18" t="s">
         <v>6</v>
       </c>
       <c r="AU18">
-        <v>-4.9188000000000001E-3</v>
+        <v>-4.9106999999999996E-3</v>
       </c>
       <c r="AV18">
-        <v>-1.1892E-2</v>
+        <v>-1.1212E-2</v>
       </c>
       <c r="AY18" t="s">
         <v>6</v>
       </c>
       <c r="AZ18">
+        <v>-4.9188000000000001E-3</v>
+      </c>
+      <c r="BA18">
+        <v>-1.1892E-2</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE18">
         <v>-5.0714000000000002E-3</v>
       </c>
-      <c r="BA18">
+      <c r="BF18">
         <v>-1.1847999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:58">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4475,40 +7703,49 @@
         <v>7</v>
       </c>
       <c r="AK19">
-        <v>90.453000000000003</v>
+        <v>83.218999999999994</v>
       </c>
       <c r="AL19">
-        <v>138.86000000000001</v>
+        <v>139.77000000000001</v>
       </c>
       <c r="AO19" t="s">
         <v>7</v>
       </c>
       <c r="AP19">
-        <v>75.798000000000002</v>
+        <v>90.453000000000003</v>
       </c>
       <c r="AQ19">
-        <v>95.926000000000002</v>
+        <v>138.86000000000001</v>
       </c>
       <c r="AT19" t="s">
         <v>7</v>
       </c>
       <c r="AU19">
-        <v>80.768000000000001</v>
+        <v>75.798000000000002</v>
       </c>
       <c r="AV19">
-        <v>85.361999999999995</v>
+        <v>95.926000000000002</v>
       </c>
       <c r="AY19" t="s">
         <v>7</v>
       </c>
       <c r="AZ19">
+        <v>80.768000000000001</v>
+      </c>
+      <c r="BA19">
+        <v>85.361999999999995</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE19">
         <v>96.24</v>
       </c>
-      <c r="BA19">
+      <c r="BF19">
         <v>97.78</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:58">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4576,36 +7813,45 @@
         <v>8</v>
       </c>
       <c r="AK20">
-        <v>0.9708</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="AL20">
-        <v>1.0181</v>
+        <v>1.0268999999999999</v>
       </c>
       <c r="AO20" t="s">
         <v>8</v>
       </c>
       <c r="AP20">
-        <v>0.96319999999999995</v>
+        <v>0.9708</v>
       </c>
       <c r="AQ20">
-        <v>1.0185</v>
+        <v>1.0181</v>
       </c>
       <c r="AT20" t="s">
         <v>8</v>
       </c>
       <c r="AU20">
-        <v>0.96960000000000002</v>
+        <v>0.96319999999999995</v>
       </c>
       <c r="AV20">
-        <v>1.0255000000000001</v>
+        <v>1.0185</v>
       </c>
       <c r="AY20" t="s">
         <v>8</v>
       </c>
       <c r="AZ20">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="BA20">
+        <v>1.0255000000000001</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE20">
         <v>0.9768</v>
       </c>
-      <c r="BA20">
+      <c r="BF20">
         <v>1.0161</v>
       </c>
     </row>

--- a/CxHy_H2_and_He_template.xlsx
+++ b/CxHy_H2_and_He_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8198CD-95F6-4F76-9647-948256856CE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F918923-2A50-4F37-8CFA-FCBF186ECF83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="230" windowWidth="16100" windowHeight="11140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -1358,13 +1358,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.30047302371083201</c:v>
+                  <c:v>0.29843872139429461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83086226110196015</c:v>
+                  <c:v>0.83582900315620057</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4653320378167196</c:v>
+                  <c:v>1.4760243883953033</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4301,13 +4301,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4337,13 +4337,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4637,10 +4637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS13"/>
+  <dimension ref="A1:BS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BS8" sqref="BS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4858,29 +4858,29 @@
         <v>1.643</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">(B3/100)*($B$13)/(1-B3/100)</f>
+        <f t="shared" ref="C3:C5" si="0">(B3/100)*($B$14)/(1-B3/100)</f>
         <v>471.46651483880152</v>
       </c>
       <c r="D3">
-        <f>He!$D$3</f>
+        <f>He!$D3</f>
         <v>236.6114439031154</v>
       </c>
       <c r="E3">
-        <f>(C3-D3)/($B$13+C3-D3)*100</f>
+        <f>(C3-D3)/($B$14+C3-D3)*100</f>
         <v>0.8252442705452957</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3">
-        <f>(H3/100)*($B$13)/(1-H3/100)</f>
+        <f>(H3/100)*($B$14)/(1-H3/100)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>He!$I$3</f>
+        <f>He!$I3</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>(I3-J3)/($B$13+I3-J3)*100</f>
+        <f>(I3-J3)/($B$14+I3-J3)*100</f>
         <v>0</v>
       </c>
       <c r="M3" s="4">
@@ -4890,43 +4890,43 @@
         <v>1.5150999999999999</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O8" si="1">(N3/100)*($B$13)/(1-N3/100)</f>
+        <f t="shared" ref="O3:O8" si="1">(N3/100)*($B$14)/(1-N3/100)</f>
         <v>434.20039417210154</v>
       </c>
       <c r="P3">
-        <f>He!$N$3</f>
+        <f>He!$N3</f>
         <v>249.34046170314397</v>
       </c>
       <c r="Q3">
-        <f>(O3-P3)/($B$13+O3-P3)*100</f>
+        <f>(O3-P3)/($B$14+O3-P3)*100</f>
         <v>0.65071225282672496</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3">
-        <f t="shared" ref="U3:U8" si="2">(T3/100)*($B$13)/(1-T3/100)</f>
+        <f t="shared" ref="U3:U8" si="2">(T3/100)*($B$14)/(1-T3/100)</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>He!$S$3</f>
+        <f>He!$S3</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>(U3-V3)/($B$13+U3-V3)*100</f>
+        <f>(U3-V3)/($B$14+U3-V3)*100</f>
         <v>0</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA8" si="3">(Z3/100)*($B$13)/(1-Z3/100)</f>
+        <f t="shared" ref="AA3:AA8" si="3">(Z3/100)*($B$14)/(1-Z3/100)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>He!$X$3</f>
+        <f>He!$X3</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>(AA3-AB3)/($B$13+AA3-AB3)*100</f>
+        <f>(AA3-AB3)/($B$14+AA3-AB3)*100</f>
         <v>0</v>
       </c>
       <c r="AE3" s="4">
@@ -4936,43 +4936,43 @@
         <v>1.1891</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG5" si="4">(AF3/100)*($B$13)/(1-AF3/100)</f>
+        <f t="shared" ref="AG3:AG5" si="4">(AF3/100)*($B$14)/(1-AF3/100)</f>
         <v>339.65036650814841</v>
       </c>
       <c r="AH3">
-        <f>He!$AC$3</f>
+        <f>He!$AC3</f>
         <v>191.36604330085166</v>
       </c>
       <c r="AI3">
-        <f>(AG3-AH3)/($B$13+AG3-AH3)*100</f>
+        <f>(AG3-AH3)/($B$14+AG3-AH3)*100</f>
         <v>0.52263794313525413</v>
       </c>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3">
-        <f t="shared" ref="AM3:AM8" si="5">(AL3/100)*($B$13)/(1-AL3/100)</f>
+        <f t="shared" ref="AM3:AM8" si="5">(AL3/100)*($B$14)/(1-AL3/100)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>He!$AH$3</f>
+        <f>He!$AH3</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>(AM3-AN3)/($B$13+AM3-AN3)*100</f>
+        <f>(AM3-AN3)/($B$14+AM3-AN3)*100</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
       <c r="AS3">
-        <f t="shared" ref="AS3:AS8" si="6">(AR3/100)*($B$13)/(1-AR3/100)</f>
+        <f t="shared" ref="AS3:AS8" si="6">(AR3/100)*($B$14)/(1-AR3/100)</f>
         <v>0</v>
       </c>
       <c r="AT3">
-        <f>He!$AM$3</f>
+        <f>He!$AM3</f>
         <v>0</v>
       </c>
       <c r="AU3">
-        <f>(AS3-AT3)/($B$13+AS3-AT3)*100</f>
+        <f>(AS3-AT3)/($B$14+AS3-AT3)*100</f>
         <v>0</v>
       </c>
       <c r="AW3" s="4">
@@ -4982,29 +4982,29 @@
         <v>1.0073000000000001</v>
       </c>
       <c r="AY3">
-        <f t="shared" ref="AY3:AY8" si="7">(AX3/100)*($B$13)/(1-AX3/100)</f>
+        <f t="shared" ref="AY3:AY8" si="7">(AX3/100)*($B$14)/(1-AX3/100)</f>
         <v>287.19324960325361</v>
       </c>
       <c r="AZ3">
-        <f>He!$AR$3</f>
+        <f>He!$AR3</f>
         <v>174.05310223785571</v>
       </c>
       <c r="BA3">
-        <f>(AY3-AZ3)/($B$13+AY3-AZ3)*100</f>
+        <f>(AY3-AZ3)/($B$14+AY3-AZ3)*100</f>
         <v>0.39926452273242874</v>
       </c>
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
       <c r="BE3">
-        <f t="shared" ref="BE3:BE8" si="8">(BD3/100)*($B$13)/(1-BD3/100)</f>
+        <f t="shared" ref="BE3:BE8" si="8">(BD3/100)*($B$14)/(1-BD3/100)</f>
         <v>0</v>
       </c>
       <c r="BF3">
-        <f>He!$AW$3</f>
+        <f>He!$AW3</f>
         <v>0</v>
       </c>
       <c r="BG3">
-        <f>(BE3-BF3)/($B$13+BE3-BF3)*100</f>
+        <f>(BE3-BF3)/($B$14+BE3-BF3)*100</f>
         <v>0</v>
       </c>
       <c r="BI3" s="4">
@@ -5014,16 +5014,16 @@
         <v>0.82269999999999999</v>
       </c>
       <c r="BK3">
-        <f t="shared" ref="BK3:BK6" si="9">(BJ3/100)*($B$13)/(1-BJ3/100)</f>
+        <f t="shared" ref="BK3:BK6" si="9">(BJ3/100)*($B$14)/(1-BJ3/100)</f>
         <v>234.12499432833926</v>
       </c>
       <c r="BL3">
-        <f>He!$BB$3</f>
-        <v>149.06390248152044</v>
+        <f>He!$BB3</f>
+        <v>149.6415181960549</v>
       </c>
       <c r="BM3">
-        <f>(BK3-BL3)/($B$13+BK3-BL3)*100</f>
-        <v>0.30047302371083201</v>
+        <f>(BK3-BL3)/($B$14+BK3-BL3)*100</f>
+        <v>0.29843872139429461</v>
       </c>
       <c r="BO3" s="4">
         <v>4.9966999999999997</v>
@@ -5032,15 +5032,15 @@
         <v>0.68430000000000002</v>
       </c>
       <c r="BQ3">
-        <f>(BP3/100)*($B$13)/(1-BP3/100)</f>
+        <f>(BP3/100)*($B$14)/(1-BP3/100)</f>
         <v>194.46757360618716</v>
       </c>
       <c r="BR3">
-        <f>He!$BG$3</f>
+        <f>He!$BG3</f>
         <v>132.05443998416902</v>
       </c>
       <c r="BS3">
-        <f>(BQ3-BR3)/($B$13+BQ3-BR3)*100</f>
+        <f>(BQ3-BR3)/($B$14+BQ3-BR3)*100</f>
         <v>0.22064704113308786</v>
       </c>
     </row>
@@ -5056,25 +5056,25 @@
         <v>970.12062848454138</v>
       </c>
       <c r="D4">
-        <f>He!$D$4</f>
+        <f>He!$D4</f>
         <v>376.34161517421109</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E6" si="10">(C4-D4)/($B$13+C4-D4)*100</f>
+        <f t="shared" ref="E4:E6" si="10">(C4-D4)/($B$14+C4-D4)*100</f>
         <v>2.0604607073851047</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4">
-        <f t="shared" ref="I4:I8" si="11">(H4/100)*($B$13)/(1-H4/100)</f>
+        <f t="shared" ref="I4:I8" si="11">(H4/100)*($B$14)/(1-H4/100)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>He!$I$4</f>
+        <f>He!$I4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K8" si="12">(I4-J4)/($B$13+I4-J4)*100</f>
+        <f t="shared" ref="K4:K8" si="12">(I4-J4)/($B$14+I4-J4)*100</f>
         <v>0</v>
       </c>
       <c r="M4" s="4">
@@ -5088,11 +5088,11 @@
         <v>884.07031150090552</v>
       </c>
       <c r="P4">
-        <f>He!$N$4</f>
+        <f>He!$N4</f>
         <v>428.02464349505459</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q8" si="13">(O4-P4)/($B$13+O4-P4)*100</f>
+        <f t="shared" ref="Q4:Q8" si="13">(O4-P4)/($B$14+O4-P4)*100</f>
         <v>1.5901148599445734</v>
       </c>
       <c r="S4" s="4"/>
@@ -5102,11 +5102,11 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <f>He!$S$4</f>
+        <f>He!$S4</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W8" si="14">(U4-V4)/($B$13+U4-V4)*100</f>
+        <f t="shared" ref="W4:W8" si="14">(U4-V4)/($B$14+U4-V4)*100</f>
         <v>0</v>
       </c>
       <c r="Y4" s="4"/>
@@ -5116,11 +5116,11 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>He!$X$4</f>
+        <f>He!$X4</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC8" si="15">(AA4-AB4)/($B$13+AA4-AB4)*100</f>
+        <f t="shared" ref="AC4:AC8" si="15">(AA4-AB4)/($B$14+AA4-AB4)*100</f>
         <v>0</v>
       </c>
       <c r="AE4" s="4">
@@ -5134,11 +5134,11 @@
         <v>726.98826635647742</v>
       </c>
       <c r="AH4">
-        <f>He!$AC$4</f>
+        <f>He!$AC4</f>
         <v>356.54205315214972</v>
       </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AI5" si="16">(AG4-AH4)/($B$13+AG4-AH4)*100</f>
+        <f t="shared" ref="AI4:AI5" si="16">(AG4-AH4)/($B$14+AG4-AH4)*100</f>
         <v>1.2955180542481122</v>
       </c>
       <c r="AK4" s="4"/>
@@ -5148,11 +5148,11 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>He!$AH$4</f>
+        <f>He!$AH4</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO8" si="17">(AM4-AN4)/($B$13+AM4-AN4)*100</f>
+        <f t="shared" ref="AO4:AO8" si="17">(AM4-AN4)/($B$14+AM4-AN4)*100</f>
         <v>0</v>
       </c>
       <c r="AQ4" s="4"/>
@@ -5162,11 +5162,11 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <f>He!$AM$4</f>
+        <f>He!$AM4</f>
         <v>0</v>
       </c>
       <c r="AU4">
-        <f t="shared" ref="AU4:AU8" si="18">(AS4-AT4)/($B$13+AS4-AT4)*100</f>
+        <f t="shared" ref="AU4:AU8" si="18">(AS4-AT4)/($B$14+AS4-AT4)*100</f>
         <v>0</v>
       </c>
       <c r="AW4" s="4">
@@ -5180,11 +5180,11 @@
         <v>604.35769062628958</v>
       </c>
       <c r="AZ4">
-        <f>He!$AR$4</f>
+        <f>He!$AR4</f>
         <v>325.24517773751114</v>
       </c>
       <c r="BA4">
-        <f t="shared" ref="BA4:BA8" si="19">(AY4-AZ4)/($B$13+AY4-AZ4)*100</f>
+        <f t="shared" ref="BA4:BA8" si="19">(AY4-AZ4)/($B$14+AY4-AZ4)*100</f>
         <v>0.97923520725172375</v>
       </c>
       <c r="BC4" s="4"/>
@@ -5194,11 +5194,11 @@
         <v>0</v>
       </c>
       <c r="BF4">
-        <f>He!$AW$4</f>
+        <f>He!$AW4</f>
         <v>0</v>
       </c>
       <c r="BG4">
-        <f t="shared" ref="BG4:BG8" si="20">(BE4-BF4)/($B$13+BE4-BF4)*100</f>
+        <f t="shared" ref="BG4:BG8" si="20">(BE4-BF4)/($B$14+BE4-BF4)*100</f>
         <v>0</v>
       </c>
       <c r="BI4" s="4">
@@ -5212,12 +5212,12 @@
         <v>564.74888691460376</v>
       </c>
       <c r="BL4">
-        <f>He!$BB$4</f>
-        <v>328.28160493536751</v>
+        <f>He!$BB4</f>
+        <v>326.85613242536948</v>
       </c>
       <c r="BM4">
-        <f t="shared" ref="BM4:BM6" si="21">(BK4-BL4)/($B$13+BK4-BL4)*100</f>
-        <v>0.83086226110196015</v>
+        <f t="shared" ref="BM4:BM6" si="21">(BK4-BL4)/($B$14+BK4-BL4)*100</f>
+        <v>0.83582900315620057</v>
       </c>
       <c r="BO4" s="4">
         <v>15.022</v>
@@ -5226,15 +5226,15 @@
         <v>1.4831000000000001</v>
       </c>
       <c r="BQ4">
-        <f t="shared" ref="BQ4:BQ8" si="22">(BP4/100)*($B$13)/(1-BP4/100)</f>
+        <f t="shared" ref="BQ4:BQ8" si="22">(BP4/100)*($B$14)/(1-BP4/100)</f>
         <v>424.89171299543534</v>
       </c>
       <c r="BR4">
-        <f>He!$BG$4</f>
+        <f>He!$BG4</f>
         <v>248.04850652803421</v>
       </c>
       <c r="BS4">
-        <f t="shared" ref="BS4:BS8" si="23">(BQ4-BR4)/($B$13+BQ4-BR4)*100</f>
+        <f t="shared" ref="BS4:BS8" si="23">(BQ4-BR4)/($B$14+BQ4-BR4)*100</f>
         <v>0.62266885944826678</v>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
         <v>1299.6919678067907</v>
       </c>
       <c r="D5">
-        <f>He!$D$5</f>
+        <f>He!$D5</f>
         <v>556.85294587741328</v>
       </c>
       <c r="E5">
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <f>He!$I$5</f>
+        <f>He!$I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -5283,7 +5283,7 @@
         <v>1175.2650183745407</v>
       </c>
       <c r="P5" s="2">
-        <f>He!$N$5</f>
+        <f>He!$N5</f>
         <v>626.79997516693322</v>
       </c>
       <c r="Q5" s="2">
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="2">
-        <f>He!$S$5</f>
+        <f>He!$S5</f>
         <v>0</v>
       </c>
       <c r="W5" s="2">
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="2">
-        <f>He!$X$5</f>
+        <f>He!$X5</f>
         <v>0</v>
       </c>
       <c r="AC5" s="2">
@@ -5329,7 +5329,7 @@
         <v>1052.6416505453583</v>
       </c>
       <c r="AH5" s="2">
-        <f>He!$AC$5</f>
+        <f>He!$AC5</f>
         <v>556.80467323352707</v>
       </c>
       <c r="AI5" s="2">
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="2">
-        <f>He!$AH$5</f>
+        <f>He!$AH5</f>
         <v>0</v>
       </c>
       <c r="AO5" s="2">
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="2">
-        <f>He!$AM$5</f>
+        <f>He!$AM5</f>
         <v>0</v>
       </c>
       <c r="AU5" s="2">
@@ -5375,7 +5375,7 @@
         <v>950.47522846826769</v>
       </c>
       <c r="AZ5">
-        <f>He!$AR$5</f>
+        <f>He!$AR5</f>
         <v>469.71510889252869</v>
       </c>
       <c r="BA5">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="BF5">
-        <f>He!$AW$5</f>
+        <f>He!$AW5</f>
         <v>0</v>
       </c>
       <c r="BG5">
@@ -5407,12 +5407,12 @@
         <v>880.10823296485728</v>
       </c>
       <c r="BL5">
-        <f>He!$BB$5</f>
-        <v>460.38254361446803</v>
+        <f>He!$BB5</f>
+        <v>457.27397278136777</v>
       </c>
       <c r="BM5">
         <f t="shared" si="21"/>
-        <v>1.4653320378167196</v>
+        <v>1.4760243883953033</v>
       </c>
       <c r="BO5" s="4">
         <v>30.031500000000001</v>
@@ -5425,7 +5425,7 @@
         <v>690.21113397921795</v>
       </c>
       <c r="BR5">
-        <f>He!$BG$5</f>
+        <f>He!$BG5</f>
         <v>332.8423882002067</v>
       </c>
       <c r="BS5">
@@ -5439,15 +5439,15 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6">
-        <f>(B6/100)*($B$13)/(1-B6/100)</f>
+        <f>(B6/100)*($B$14)/(1-B6/100)</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>He!$D$6</f>
+        <f>He!$D6</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="10"/>
+        <f>(C6-D6)/($B$14+C6-D6)*100</f>
         <v>0</v>
       </c>
       <c r="G6" s="4"/>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f>He!$I$6</f>
+        <f>He!$I6</f>
         <v>0</v>
       </c>
       <c r="K6">
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <f>He!$N$6</f>
+        <f>He!$N6</f>
         <v>0</v>
       </c>
       <c r="Q6">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <f>He!$S$6</f>
+        <f>He!$S6</f>
         <v>0</v>
       </c>
       <c r="W6">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>He!$X$6</f>
+        <f>He!$X6</f>
         <v>0</v>
       </c>
       <c r="AC6">
@@ -5513,15 +5513,15 @@
       </c>
       <c r="AF6" s="4"/>
       <c r="AG6" s="2">
-        <f t="shared" ref="AG6:AG8" si="24">(AF6/100)*($B$13)/(1-AF6/100)</f>
+        <f t="shared" ref="AG6:AG8" si="24">(AF6/100)*($B$14)/(1-AF6/100)</f>
         <v>0</v>
       </c>
       <c r="AH6" s="2">
-        <f>He!$AC$6</f>
+        <f>He!$AC6</f>
         <v>0</v>
       </c>
       <c r="AI6" s="2">
-        <f t="shared" ref="AI6:AI8" si="25">(AG6-AH6)/($B$13+AG6-AH6)*100</f>
+        <f t="shared" ref="AI6:AI8" si="25">(AG6-AH6)/($B$14+AG6-AH6)*100</f>
         <v>0</v>
       </c>
       <c r="AK6" s="4"/>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="2">
-        <f>He!$AH$6</f>
+        <f>He!$AH6</f>
         <v>0</v>
       </c>
       <c r="AO6" s="2">
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="AT6" s="2">
-        <f>He!$AM$6</f>
+        <f>He!$AM6</f>
         <v>0</v>
       </c>
       <c r="AU6" s="2">
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="AZ6">
-        <f>He!$AR$6</f>
+        <f>He!$AR6</f>
         <v>0</v>
       </c>
       <c r="BA6">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="BF6">
-        <f>He!$AW$6</f>
+        <f>He!$AW6</f>
         <v>0</v>
       </c>
       <c r="BG6">
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <f>He!$BB$6</f>
+        <f>He!$BB6</f>
         <v>0</v>
       </c>
       <c r="BM6">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <f>He!$BG$6</f>
+        <f>He!$BG6</f>
         <v>0</v>
       </c>
       <c r="BS6">
@@ -5621,15 +5621,15 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7">
-        <f>(B7/100)*($B$13)/(1-B7/100)</f>
+        <f>(B7/100)*($B$14)/(1-B7/100)</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>He!$D$7</f>
+        <f>He!$D7</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>(C7-D7)/($B$13+C7-D7)*100</f>
+        <f>(C7-D7)/($B$14+C7-D7)*100</f>
         <v>0</v>
       </c>
       <c r="G7" s="4"/>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f>He!$I$7</f>
+        <f>He!$I7</f>
         <v>0</v>
       </c>
       <c r="K7">
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <f>He!$N$7</f>
+        <f>He!$N7</f>
         <v>0</v>
       </c>
       <c r="Q7">
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <f>He!$S$7</f>
+        <f>He!$S7</f>
         <v>0</v>
       </c>
       <c r="W7">
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>He!$X$7</f>
+        <f>He!$X7</f>
         <v>0</v>
       </c>
       <c r="AC7">
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <f>He!$AC$7</f>
+        <f>He!$AC7</f>
         <v>0</v>
       </c>
       <c r="AI7" s="2">
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="2">
-        <f>He!$AH$7</f>
+        <f>He!$AH7</f>
         <v>0</v>
       </c>
       <c r="AO7" s="2">
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="2">
-        <f>He!$AM$7</f>
+        <f>He!$AM7</f>
         <v>0</v>
       </c>
       <c r="AU7" s="2">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <f>He!$AR$7</f>
+        <f>He!$AR7</f>
         <v>0</v>
       </c>
       <c r="BA7">
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="BF7">
-        <f>He!$AW$7</f>
+        <f>He!$AW7</f>
         <v>0</v>
       </c>
       <c r="BG7">
@@ -5769,15 +5769,15 @@
       </c>
       <c r="BJ7" s="4"/>
       <c r="BK7">
-        <f t="shared" ref="BK7:BK8" si="26">(BJ7/100)*($B$13)/(1-BJ7/100)</f>
+        <f t="shared" ref="BK7:BK8" si="26">(BJ7/100)*($B$14)/(1-BJ7/100)</f>
         <v>0</v>
       </c>
       <c r="BL7">
-        <f>He!$BB$7</f>
+        <f>He!$BB7</f>
         <v>0</v>
       </c>
       <c r="BM7">
-        <f t="shared" ref="BM7:BM8" si="27">(BK7-BL7)/($B$13+BK7-BL7)*100</f>
+        <f t="shared" ref="BM7:BM8" si="27">(BK7-BL7)/($B$14+BK7-BL7)*100</f>
         <v>0</v>
       </c>
       <c r="BO7" s="4">
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="BR7">
-        <f>He!$BG$7</f>
+        <f>He!$BG7</f>
         <v>0</v>
       </c>
       <c r="BS7">
@@ -5803,15 +5803,15 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8">
-        <f>(B8/100)*($B$13)/(1-B8/100)</f>
+        <f>(B8/100)*($B$14)/(1-B8/100)</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>He!$D$8</f>
+        <f>He!$D8</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>(C8-D8)/($B$13+C8-D8)*100</f>
+        <f>(C8-D8)/($B$14+C8-D8)*100</f>
         <v>0</v>
       </c>
       <c r="G8" s="4"/>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f>He!$I$8</f>
+        <f>He!$I8</f>
         <v>0</v>
       </c>
       <c r="K8">
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <f>He!$N$8</f>
+        <f>He!$N8</f>
         <v>0</v>
       </c>
       <c r="Q8">
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <f>He!$S$8</f>
+        <f>He!$S8</f>
         <v>0</v>
       </c>
       <c r="W8">
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>He!$X$8</f>
+        <f>He!$X8</f>
         <v>0</v>
       </c>
       <c r="AC8">
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>He!$AC$8</f>
+        <f>He!$AC8</f>
         <v>0</v>
       </c>
       <c r="AI8">
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>He!$AH$8</f>
+        <f>He!$AH8</f>
         <v>0</v>
       </c>
       <c r="AO8">
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="AT8">
-        <f>He!$AM$8</f>
+        <f>He!$AM8</f>
         <v>0</v>
       </c>
       <c r="AU8">
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="AZ8">
-        <f>He!$AR$8</f>
+        <f>He!$AR8</f>
         <v>0</v>
       </c>
       <c r="BA8">
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="BF8">
-        <f>He!$AW$8</f>
+        <f>He!$AW8</f>
         <v>0</v>
       </c>
       <c r="BG8">
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="BL8">
-        <f>He!$BB$8</f>
+        <f>He!$BB8</f>
         <v>0</v>
       </c>
       <c r="BM8">
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="BR8">
-        <f>He!$BG$8</f>
+        <f>He!$BG8</f>
         <v>0</v>
       </c>
       <c r="BS8">
@@ -5979,24 +5979,194 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:71">
-      <c r="A10" t="s">
+    <row r="9" spans="1:71">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9">
+        <f>(B9/100)*($B$14)/(1-B9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>He!$D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>(C9-D9)/($B$14+C9-D9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9">
+        <f t="shared" ref="I9" si="28">(H9/100)*($B$14)/(1-H9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>He!$I9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9" si="29">(I9-J9)/($B$14+I9-J9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9">
+        <f t="shared" ref="O9" si="30">(N9/100)*($B$14)/(1-N9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>He!$N9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9" si="31">(O9-P9)/($B$14+O9-P9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9">
+        <f t="shared" ref="U9" si="32">(T9/100)*($B$14)/(1-T9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>He!$S9</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9" si="33">(U9-V9)/($B$14+U9-V9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9">
+        <f t="shared" ref="AA9" si="34">(Z9/100)*($B$14)/(1-Z9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f>He!$X9</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ref="AC9" si="35">(AA9-AB9)/($B$14+AA9-AB9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9">
+        <f t="shared" ref="AG9" si="36">(AF9/100)*($B$14)/(1-AF9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f>He!$AC9</f>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" ref="AI9" si="37">(AG9-AH9)/($B$14+AG9-AH9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9">
+        <f t="shared" ref="AM9" si="38">(AL9/100)*($B$14)/(1-AL9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <f>He!$AH9</f>
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" ref="AO9" si="39">(AM9-AN9)/($B$14+AM9-AN9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9">
+        <f t="shared" ref="AS9" si="40">(AR9/100)*($B$14)/(1-AR9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <f>He!$AM9</f>
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" ref="AU9" si="41">(AS9-AT9)/($B$14+AS9-AT9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9">
+        <f t="shared" ref="AY9" si="42">(AX9/100)*($B$14)/(1-AX9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <f>He!$AR9</f>
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" ref="BA9" si="43">(AY9-AZ9)/($B$14+AY9-AZ9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9">
+        <f t="shared" ref="BE9" si="44">(BD9/100)*($B$14)/(1-BD9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <f>He!$AW9</f>
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" ref="BG9" si="45">(BE9-BF9)/($B$14+BE9-BF9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9">
+        <f t="shared" ref="BK9" si="46">(BJ9/100)*($B$14)/(1-BJ9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <f>He!$BB9</f>
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <f t="shared" ref="BM9" si="47">(BK9-BL9)/($B$14+BK9-BL9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9">
+        <f t="shared" ref="BQ9" si="48">(BP9/100)*($B$14)/(1-BP9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <f>He!$BG9</f>
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <f t="shared" ref="BS9" si="49">(BQ9-BR9)/($B$14+BQ9-BR9)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71">
+      <c r="A11" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:71">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:71">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <f xml:space="preserve"> 2304*12+576</f>
         <v>28224</v>
       </c>
@@ -6011,10 +6181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323AA30-3DDC-4545-83D0-069D8AFD5649}">
-  <dimension ref="A1:BG20"/>
+  <dimension ref="A1:BG21"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AW3" sqref="AW3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6241,17 +6411,17 @@
         <v>101.9455</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">B3/($B$15 + $B$16*EXP(-(A3-$B$20)/$B$17)+$B$18*EXP(-(A3-$B$20)/$B$19))</f>
+        <f t="shared" ref="C3:C8" si="0">B3/($B$16 + $B$17*EXP(-(A3-$B$21)/$B$18)+$B$19*EXP(-(A3-$B$21)/$B$20))</f>
         <v>91478.98695057779</v>
       </c>
       <c r="D3">
-        <f>C3*($C$15 + $C$16*EXP(-(A3-$C$20)/$C$17)+$C$18*EXP(-(A3-$C$20)/$C$19))*2</f>
+        <f>C3*($C$16 + $C$17*EXP(-(A3-$C$21)/$C$18)+$C$19*EXP(-(A3-$C$21)/$C$20))*2</f>
         <v>236.6114439031154</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3">
-        <f>G3/($G$15 + $G$16*EXP(-(F3-$G$20)/$G$17)+$G$18*EXP(-(F3-$G$20)/$G$19))</f>
+        <f>G3/($G$16 + $G$17*EXP(-(F3-$G$21)/$G$18)+$G$19*EXP(-(F3-$G$21)/$G$20))</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -6264,31 +6434,31 @@
         <v>92.248599999999996</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M8" si="1">L3/($L$15 + $L$16*EXP(-(K3-$L$20)/$L$17)+$L$18*EXP(-(K3-$L$20)/$L$19))</f>
+        <f t="shared" ref="M3:M8" si="1">L3/($L$16 + $L$17*EXP(-(K3-$L$21)/$L$18)+$L$19*EXP(-(K3-$L$21)/$L$20))</f>
         <v>86446.241549900165</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N8" si="2">M3*($M$15 + $M$16*EXP(-(K3-$M$20)/$M$17)+$M$18*EXP(-(K3-$M$20)/$M$19))*2</f>
+        <f t="shared" ref="N3:N8" si="2">M3*($M$16 + $M$17*EXP(-(K3-$M$21)/$M$18)+$M$19*EXP(-(K3-$M$21)/$M$20))*2</f>
         <v>249.34046170314397</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3">
-        <f>Q3/($Q$15 + $Q$16*EXP(-(P3-$Q$20)/$Q$17)+$Q$18*EXP(-(P3-$Q$20)/$Q$19))</f>
+        <f>Q3/($Q$16 + $Q$17*EXP(-(P3-$Q$21)/$Q$18)+$Q$19*EXP(-(P3-$Q$21)/$Q$20))</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>R3*($R$15 + $R$16*EXP(-(P3-$R$20)/$R$17)+$R$18*EXP(-(P3-$R$20)/$R$19))*2</f>
+        <f>R3*($R$16 + $R$17*EXP(-(P3-$R$21)/$R$18)+$R$19*EXP(-(P3-$R$21)/$R$20))*2</f>
         <v>0</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3">
-        <f>V3/($V$15 + $V$16*EXP(-(U3-$V$20)/$V$17)+$V$18*EXP(-(U3-$V$20)/$V$19))</f>
+        <f>V3/($V$16 + $V$17*EXP(-(U3-$V$21)/$V$18)+$V$19*EXP(-(U3-$V$21)/$V$20))</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>W3*($W$15 + $W$16*EXP(-(U3-$W$20)/$W$17)+$W$18*EXP(-(U3-$W$20)/$W$19))*2</f>
+        <f>W3*($W$16 + $W$17*EXP(-(U3-$W$21)/$W$18)+$W$19*EXP(-(U3-$W$21)/$W$20))*2</f>
         <v>0</v>
       </c>
       <c r="Z3" s="4">
@@ -6298,31 +6468,31 @@
         <v>72.681100000000001</v>
       </c>
       <c r="AB3">
-        <f>AA3/($AA$15 + $AA$16*EXP(-(Z3-$AA$20)/$AA$17)+$AA$18*EXP(-(Z3-$AA$20)/$AA$19))</f>
+        <f>AA3/($AA$16 + $AA$17*EXP(-(Z3-$AA$21)/$AA$18)+$AA$19*EXP(-(Z3-$AA$21)/$AA$20))</f>
         <v>73363.638885437686</v>
       </c>
       <c r="AC3">
-        <f>AB3*($AB$15 + $AB$16*EXP(-(Z3-$AB$20)/$AB$17)+$AB$18*EXP(-(Z3-$AB$20)/$AB$19))*2</f>
+        <f>AB3*($AB$16 + $AB$17*EXP(-(Z3-$AB$21)/$AB$18)+$AB$19*EXP(-(Z3-$AB$21)/$AB$20))*2</f>
         <v>191.36604330085166</v>
       </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3">
-        <f>AF3/($AF$15 + $AF$16*EXP(-(AE3-$AF$20)/$AF$17)+$AF$18*EXP(-(AE3-$AF$20)/$AF$19))</f>
+        <f>AF3/($AF$16 + $AF$17*EXP(-(AE3-$AF$21)/$AF$18)+$AF$19*EXP(-(AE3-$AF$21)/$AF$20))</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>AG3*($AG$15 + $AG$16*EXP(-(AE3-$AG$20)/$AG$17)+$AG$18*EXP(-(AE3-$AG$20)/$AG$19))*2</f>
+        <f>AG3*($AG$16 + $AG$17*EXP(-(AE3-$AG$21)/$AG$18)+$AG$19*EXP(-(AE3-$AG$21)/$AG$20))*2</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3">
-        <f>AK3/($AK$15 + $AK$16*EXP(-(AJ3-$AK$20)/$AK$17)+$AK$18*EXP(-(AJ3-$AK$20)/$AK$19))</f>
+        <f>AK3/($AK$16 + $AK$17*EXP(-(AJ3-$AK$21)/$AK$18)+$AK$19*EXP(-(AJ3-$AK$21)/$AK$20))</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>AL3*($AL$15 + $AL$16*EXP(-(AJ3-$AL$20)/$AL$17)+$AL$18*EXP(-(AJ3-$AL$20)/$AL$19))*2</f>
+        <f>AL3*($AL$16 + $AL$17*EXP(-(AJ3-$AL$21)/$AL$18)+$AL$19*EXP(-(AJ3-$AL$21)/$AL$20))*2</f>
         <v>0</v>
       </c>
       <c r="AO3" s="4">
@@ -6332,21 +6502,21 @@
         <v>67.467100000000002</v>
       </c>
       <c r="AQ3">
-        <f t="shared" ref="AQ3:AQ8" si="3">AP3/($AP$15 + $AP$16*EXP(-(AO3-$AP$20)/$AP$17)+$AP$18*EXP(-(AO3-$AP$20)/$AP$19))</f>
+        <f t="shared" ref="AQ3:AQ8" si="3">AP3/($AP$16 + $AP$17*EXP(-(AO3-$AP$21)/$AP$18)+$AP$19*EXP(-(AO3-$AP$21)/$AP$20))</f>
         <v>72655.766181308456</v>
       </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR8" si="4">AQ3*($AQ$15 + $AQ$16*EXP(-(AO3-$AQ$20)/$AQ$17)+$AQ$18*EXP(-(AO3-$AQ$20)/$AQ$19))*2</f>
+        <f t="shared" ref="AR3:AR8" si="4">AQ3*($AQ$16 + $AQ$17*EXP(-(AO3-$AQ$21)/$AQ$18)+$AQ$19*EXP(-(AO3-$AQ$21)/$AQ$20))*2</f>
         <v>174.05310223785571</v>
       </c>
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3">
-        <f>AU3/($AU$15 + $AU$16*EXP(-(AT3-$AU$20)/$AU$17)+$AU$18*EXP(-(AT3-$AU$20)/$AU$19))</f>
+        <f>AU3/($AU$16 + $AU$17*EXP(-(AT3-$AU$21)/$AU$18)+$AU$19*EXP(-(AT3-$AU$21)/$AU$20))</f>
         <v>0</v>
       </c>
       <c r="AW3">
-        <f>AV3*($AV$15 + $AV$16*EXP(-(AT3-$AV$20)/$AV$17)+$AV$18*EXP(-(AT3-$AV$20)/$AV$19))*2</f>
+        <f>AV3*($AV$16 + $AV$17*EXP(-(AT3-$AV$21)/$AV$18)+$AV$19*EXP(-(AT3-$AV$21)/$AV$20))*2</f>
         <v>0</v>
       </c>
       <c r="AY3" s="4">
@@ -6356,12 +6526,12 @@
         <v>58.651400000000002</v>
       </c>
       <c r="BA3">
-        <f>AZ3/($AZ$15 + $AZ$16*EXP(-(AY3-$AZ$20)/$AZ$17)+$AZ$18*EXP(-(AY3-$AZ$20)/$AZ$19))</f>
-        <v>65599.943764182492</v>
+        <f>AZ3/($AZ$16 + $AZ$17*EXP(-(AY3-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AY3-$AZ$21)/$AZ$20))</f>
+        <v>65854.140506384821</v>
       </c>
       <c r="BB3">
-        <f t="shared" ref="BB3:BB8" si="5">BA3*($BA$15 + $BA$16*EXP(-(AY3-$BA$20)/$BA$17)+$BA$18*EXP(-(AY3-$BA$20)/$BA$19))*2</f>
-        <v>149.06390248152044</v>
+        <f t="shared" ref="BB3:BB8" si="5">BA3*($BA$16 + $BA$17*EXP(-(AY3-$BA$21)/$BA$18)+$BA$19*EXP(-(AY3-$BA$21)/$BA$20))*2</f>
+        <v>149.6415181960549</v>
       </c>
       <c r="BD3" s="4">
         <v>5.0431999999999997</v>
@@ -6370,11 +6540,11 @@
         <v>53.0443</v>
       </c>
       <c r="BF3">
-        <f>BE3/($BE$15 + $BE$16*EXP(-(BD3-$BE$20)/$BE$17)+$BE$18*EXP(-(BD3-$BE$20)/$BE$19))</f>
+        <f>BE3/($BE$16 + $BE$17*EXP(-(BD3-$BE$21)/$BE$18)+$BE$19*EXP(-(BD3-$BE$21)/$BE$20))</f>
         <v>65584.138081626719</v>
       </c>
       <c r="BG3">
-        <f>BF3*($BF$15 + $BF$16*EXP(-(BD3-$BF$20)/$BF$17)+$BF$18*EXP(-(BD3-$BF$20)/$BF$19))*2</f>
+        <f>BF3*($BF$16 + $BF$17*EXP(-(BD3-$BF$21)/$BF$18)+$BF$19*EXP(-(BD3-$BF$21)/$BF$20))*2</f>
         <v>132.05443998416902</v>
       </c>
     </row>
@@ -6390,13 +6560,13 @@
         <v>52430.660889315914</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D8" si="6">C4*($C$15 + $C$16*EXP(-(A4-$C$20)/$C$17)+$C$18*EXP(-(A4-$C$20)/$C$19))*2</f>
+        <f t="shared" ref="D4:D8" si="6">C4*($C$16 + $C$17*EXP(-(A4-$C$21)/$C$18)+$C$19*EXP(-(A4-$C$21)/$C$20))*2</f>
         <v>376.34161517421109</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4">
-        <f t="shared" ref="H4:H7" si="7">G4/($G$15 + $G$16*EXP(-(F4-$G$20)/$G$17)+$G$18*EXP(-(F4-$G$20)/$G$19))</f>
+        <f t="shared" ref="H4:H7" si="7">G4/($G$16 + $G$17*EXP(-(F4-$G$21)/$G$18)+$G$19*EXP(-(F4-$G$21)/$G$20))</f>
         <v>0</v>
       </c>
       <c r="I4">
@@ -6419,21 +6589,21 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4">
-        <f t="shared" ref="R4:R7" si="8">Q4/($Q$15 + $Q$16*EXP(-(P4-$Q$20)/$Q$17)+$Q$18*EXP(-(P4-$Q$20)/$Q$19))</f>
+        <f t="shared" ref="R4:R7" si="8">Q4/($Q$16 + $Q$17*EXP(-(P4-$Q$21)/$Q$18)+$Q$19*EXP(-(P4-$Q$21)/$Q$20))</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S8" si="9">R4*($R$15 + $R$16*EXP(-(P4-$R$20)/$R$17)+$R$18*EXP(-(P4-$R$20)/$R$19))*2</f>
+        <f t="shared" ref="S4:S8" si="9">R4*($R$16 + $R$17*EXP(-(P4-$R$21)/$R$18)+$R$19*EXP(-(P4-$R$21)/$R$20))*2</f>
         <v>0</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4">
-        <f t="shared" ref="W4:W8" si="10">V4/($V$15 + $V$16*EXP(-(U4-$V$20)/$V$17)+$V$18*EXP(-(U4-$V$20)/$V$19))</f>
+        <f t="shared" ref="W4:W8" si="10">V4/($V$16 + $V$17*EXP(-(U4-$V$21)/$V$18)+$V$19*EXP(-(U4-$V$21)/$V$20))</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X8" si="11">W4*($W$15 + $W$16*EXP(-(U4-$W$20)/$W$17)+$W$18*EXP(-(U4-$W$20)/$W$19))*2</f>
+        <f t="shared" ref="X4:X8" si="11">W4*($W$16 + $W$17*EXP(-(U4-$W$21)/$W$18)+$W$19*EXP(-(U4-$W$21)/$W$20))*2</f>
         <v>0</v>
       </c>
       <c r="Z4" s="4">
@@ -6443,31 +6613,31 @@
         <v>106.50709999999999</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB8" si="12">AA4/($AA$15 + $AA$16*EXP(-(Z4-$AA$20)/$AA$17)+$AA$18*EXP(-(Z4-$AA$20)/$AA$19))</f>
+        <f t="shared" ref="AB4:AB8" si="12">AA4/($AA$16 + $AA$17*EXP(-(Z4-$AA$21)/$AA$18)+$AA$19*EXP(-(Z4-$AA$21)/$AA$20))</f>
         <v>49544.266973580001</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC8" si="13">AB4*($AB$15 + $AB$16*EXP(-(Z4-$AB$20)/$AB$17)+$AB$18*EXP(-(Z4-$AB$20)/$AB$19))*2</f>
+        <f t="shared" ref="AC4:AC8" si="13">AB4*($AB$16 + $AB$17*EXP(-(Z4-$AB$21)/$AB$18)+$AB$19*EXP(-(Z4-$AB$21)/$AB$20))*2</f>
         <v>356.54205315214972</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG8" si="14">AF4/($AF$15 + $AF$16*EXP(-(AE4-$AF$20)/$AF$17)+$AF$18*EXP(-(AE4-$AF$20)/$AF$19))</f>
+        <f t="shared" ref="AG4:AG8" si="14">AF4/($AF$16 + $AF$17*EXP(-(AE4-$AF$21)/$AF$18)+$AF$19*EXP(-(AE4-$AF$21)/$AF$20))</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH8" si="15">AG4*($AG$15 + $AG$16*EXP(-(AE4-$AG$20)/$AG$17)+$AG$18*EXP(-(AE4-$AG$20)/$AG$19))*2</f>
+        <f t="shared" ref="AH4:AH8" si="15">AG4*($AG$16 + $AG$17*EXP(-(AE4-$AG$21)/$AG$18)+$AG$19*EXP(-(AE4-$AG$21)/$AG$20))*2</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4">
-        <f t="shared" ref="AL4:AL8" si="16">AK4/($AK$15 + $AK$16*EXP(-(AJ4-$AK$20)/$AK$17)+$AK$18*EXP(-(AJ4-$AK$20)/$AK$19))</f>
+        <f t="shared" ref="AL4:AL8" si="16">AK4/($AK$16 + $AK$17*EXP(-(AJ4-$AK$21)/$AK$18)+$AK$19*EXP(-(AJ4-$AK$21)/$AK$20))</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f t="shared" ref="AM4:AM8" si="17">AL4*($AL$15 + $AL$16*EXP(-(AJ4-$AL$20)/$AL$17)+$AL$18*EXP(-(AJ4-$AL$20)/$AL$19))*2</f>
+        <f t="shared" ref="AM4:AM8" si="17">AL4*($AL$16 + $AL$17*EXP(-(AJ4-$AL$21)/$AL$18)+$AL$19*EXP(-(AJ4-$AL$21)/$AL$20))*2</f>
         <v>0</v>
       </c>
       <c r="AO4" s="4">
@@ -6487,11 +6657,11 @@
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
       <c r="AV4">
-        <f t="shared" ref="AV4:AV8" si="18">AU4/($AZ$15 + $AZ$16*EXP(-(AT4-$AZ$20)/$AZ$17)+$AZ$18*EXP(-(AT4-$AZ$20)/$AZ$19))</f>
+        <f t="shared" ref="AV4:AV8" si="18">AU4/($AZ$16 + $AZ$17*EXP(-(AT4-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AT4-$AZ$21)/$AZ$20))</f>
         <v>0</v>
       </c>
       <c r="AW4">
-        <f>AV4*($BA$15 + $BA$16*EXP(-(AT4-$BA$20)/$BA$17)+$BA$18*EXP(-(AT4-$BA$20)/$BA$19))*2</f>
+        <f>AV4*($BA$16 + $BA$17*EXP(-(AT4-$BA$21)/$BA$18)+$BA$19*EXP(-(AT4-$BA$21)/$BA$20))*2</f>
         <v>0</v>
       </c>
       <c r="AY4" s="4">
@@ -6501,12 +6671,12 @@
         <v>102.6739</v>
       </c>
       <c r="BA4">
-        <f t="shared" ref="BA4:BA8" si="19">AZ4/($AZ$15 + $AZ$16*EXP(-(AY4-$AZ$20)/$AZ$17)+$AZ$18*EXP(-(AY4-$AZ$20)/$AZ$19))</f>
-        <v>51953.060636807</v>
+        <f t="shared" ref="BA4:BA8" si="19">AZ4/($AZ$16 + $AZ$17*EXP(-(AY4-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AY4-$AZ$21)/$AZ$20))</f>
+        <v>51727.46877105927</v>
       </c>
       <c r="BB4">
         <f t="shared" si="5"/>
-        <v>328.28160493536751</v>
+        <v>326.85613242536948</v>
       </c>
       <c r="BD4" s="4">
         <v>14.9808</v>
@@ -6515,11 +6685,11 @@
         <v>81.668300000000002</v>
       </c>
       <c r="BF4">
-        <f t="shared" ref="BF4:BF8" si="20">BE4/($BE$15 + $BE$16*EXP(-(BD4-$BE$20)/$BE$17)+$BE$18*EXP(-(BD4-$BE$20)/$BE$19))</f>
+        <f t="shared" ref="BF4:BF8" si="20">BE4/($BE$16 + $BE$17*EXP(-(BD4-$BE$21)/$BE$18)+$BE$19*EXP(-(BD4-$BE$21)/$BE$20))</f>
         <v>44607.765789132463</v>
       </c>
       <c r="BG4">
-        <f t="shared" ref="BG4:BG8" si="21">BF4*($BF$15 + $BF$16*EXP(-(BD4-$BF$20)/$BF$17)+$BF$18*EXP(-(BD4-$BF$20)/$BF$19))*2</f>
+        <f t="shared" ref="BG4:BG8" si="21">BF4*($BF$16 + $BF$17*EXP(-(BD4-$BF$21)/$BF$18)+$BF$19*EXP(-(BD4-$BF$21)/$BF$20))*2</f>
         <v>248.04850652803421</v>
       </c>
     </row>
@@ -6636,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <f>AV5*($BA$15 + $BA$16*EXP(-(AT5-$BA$20)/$BA$17)+$BA$18*EXP(-(AT5-$BA$20)/$BA$19))*2</f>
+        <f>AV5*($BA$16 + $BA$17*EXP(-(AT5-$BA$21)/$BA$18)+$BA$19*EXP(-(AT5-$BA$21)/$BA$20))*2</f>
         <v>0</v>
       </c>
       <c r="AY5" s="4">
@@ -6647,11 +6817,11 @@
       </c>
       <c r="BA5">
         <f t="shared" si="19"/>
-        <v>39217.410125887356</v>
+        <v>38952.608388814646</v>
       </c>
       <c r="BB5">
         <f t="shared" si="5"/>
-        <v>460.38254361446803</v>
+        <v>457.27397278136777</v>
       </c>
       <c r="BD5" s="4">
         <v>30.0077</v>
@@ -6669,12 +6839,10 @@
       </c>
     </row>
     <row r="6" spans="1:59">
-      <c r="A6" s="4">
-        <v>50.028500000000001</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>B6/($B$16 + $B$17*EXP(-(A6-$B$21)/$B$18)+$B$19*EXP(-(A6-$B$21)/$B$20))</f>
         <v>0</v>
       </c>
       <c r="D6">
@@ -6751,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>AL6*($AL$15 + $AL$16*EXP(-(AJ6-$AL$20)/$AL$17)+$AL$18*EXP(-(AJ6-$AL$20)/$AL$19))*2</f>
+        <f>AL6*($AL$16 + $AL$17*EXP(-(AJ6-$AL$21)/$AL$18)+$AL$19*EXP(-(AJ6-$AL$21)/$AL$20))*2</f>
         <v>0</v>
       </c>
       <c r="AO6" s="4">
@@ -6773,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <f>AV6*($BA$15 + $BA$16*EXP(-(AT6-$BA$20)/$BA$17)+$BA$18*EXP(-(AT6-$BA$20)/$BA$19))*2</f>
+        <f>AV6*($BA$16 + $BA$17*EXP(-(AT6-$BA$21)/$BA$18)+$BA$19*EXP(-(AT6-$BA$21)/$BA$20))*2</f>
         <v>0</v>
       </c>
       <c r="AY6" s="4">
@@ -6802,9 +6970,7 @@
       </c>
     </row>
     <row r="7" spans="1:59">
-      <c r="A7" s="4">
-        <v>70.024699999999996</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -6906,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="AW7">
-        <f>AV7*($BA$15 + $BA$16*EXP(-(AT7-$BA$20)/$BA$17)+$BA$18*EXP(-(AT7-$BA$20)/$BA$19))*2</f>
+        <f>AV7*($BA$16 + $BA$17*EXP(-(AT7-$BA$21)/$BA$18)+$BA$19*EXP(-(AT7-$BA$21)/$BA$20))*2</f>
         <v>0</v>
       </c>
       <c r="AY7" s="4">
@@ -6935,9 +7101,7 @@
       </c>
     </row>
     <row r="8" spans="1:59">
-      <c r="A8" s="4">
-        <v>100.0535</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -6950,7 +7114,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8">
-        <f>G8/($G$15 + $G$16*EXP(-(F8-$G$20)/$G$17)+$G$18*EXP(-(F8-$G$20)/$G$19))</f>
+        <f>G8/($G$16 + $G$17*EXP(-(F8-$G$21)/$G$18)+$G$19*EXP(-(F8-$G$21)/$G$20))</f>
         <v>0</v>
       </c>
       <c r="I8">
@@ -6971,7 +7135,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8">
-        <f>Q8/($Q$15 + $Q$16*EXP(-(P8-$Q$20)/$Q$17)+$Q$18*EXP(-(P8-$Q$20)/$Q$19))</f>
+        <f>Q8/($Q$16 + $Q$17*EXP(-(P8-$Q$21)/$Q$18)+$Q$19*EXP(-(P8-$Q$21)/$Q$20))</f>
         <v>0</v>
       </c>
       <c r="S8">
@@ -7039,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <f>AV8*($BA$15 + $BA$16*EXP(-(AT8-$BA$20)/$BA$17)+$BA$18*EXP(-(AT8-$BA$20)/$BA$19))*2</f>
+        <f>AV8*($BA$16 + $BA$17*EXP(-(AT8-$BA$21)/$BA$18)+$BA$19*EXP(-(AT8-$BA$21)/$BA$20))*2</f>
         <v>0</v>
       </c>
       <c r="AY8" s="4">
@@ -7067,791 +7231,912 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" t="s">
-        <v>26</v>
+    <row r="9" spans="1:59">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9">
+        <f>B9/($B$16 + $B$17*EXP(-(A9-$B$21)/$B$18)+$B$19*EXP(-(A9-$B$21)/$B$20))</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>C9*($C$16 + $C$17*EXP(-(A9-$C$21)/$C$18)+$C$19*EXP(-(A9-$C$21)/$C$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9">
+        <f>G9/($G$16 + $G$17*EXP(-(F9-$G$21)/$G$18)+$G$19*EXP(-(F9-$G$21)/$G$20))</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9">
+        <f t="shared" ref="M9" si="22">L9/($L$16 + $L$17*EXP(-(K9-$L$21)/$L$18)+$L$19*EXP(-(K9-$L$21)/$L$20))</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9" si="23">M9*($M$16 + $M$17*EXP(-(K9-$M$21)/$M$18)+$M$19*EXP(-(K9-$M$21)/$M$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9">
+        <f>Q9/($Q$16 + $Q$17*EXP(-(P9-$Q$21)/$Q$18)+$Q$19*EXP(-(P9-$Q$21)/$Q$20))</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9" si="24">R9*($R$16 + $R$17*EXP(-(P9-$R$21)/$R$18)+$R$19*EXP(-(P9-$R$21)/$R$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9">
+        <f t="shared" ref="W9" si="25">V9/($V$16 + $V$17*EXP(-(U9-$V$21)/$V$18)+$V$19*EXP(-(U9-$V$21)/$V$20))</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ref="X9" si="26">W9*($W$16 + $W$17*EXP(-(U9-$W$21)/$W$18)+$W$19*EXP(-(U9-$W$21)/$W$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9">
+        <f t="shared" ref="AB9" si="27">AA9/($AA$16 + $AA$17*EXP(-(Z9-$AA$21)/$AA$18)+$AA$19*EXP(-(Z9-$AA$21)/$AA$20))</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ref="AC9" si="28">AB9*($AB$16 + $AB$17*EXP(-(Z9-$AB$21)/$AB$18)+$AB$19*EXP(-(Z9-$AB$21)/$AB$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9">
+        <f t="shared" ref="AG9" si="29">AF9/($AF$16 + $AF$17*EXP(-(AE9-$AF$21)/$AF$18)+$AF$19*EXP(-(AE9-$AF$21)/$AF$20))</f>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" ref="AH9" si="30">AG9*($AG$16 + $AG$17*EXP(-(AE9-$AG$21)/$AG$18)+$AG$19*EXP(-(AE9-$AG$21)/$AG$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9">
+        <f t="shared" ref="AL9" si="31">AK9/($AK$16 + $AK$17*EXP(-(AJ9-$AK$21)/$AK$18)+$AK$19*EXP(-(AJ9-$AK$21)/$AK$20))</f>
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" ref="AM9" si="32">AL9*($AL$16 + $AL$17*EXP(-(AJ9-$AL$21)/$AL$18)+$AL$19*EXP(-(AJ9-$AL$21)/$AL$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9">
+        <f t="shared" ref="AQ9" si="33">AP9/($AP$16 + $AP$17*EXP(-(AO9-$AP$21)/$AP$18)+$AP$19*EXP(-(AO9-$AP$21)/$AP$20))</f>
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <f>AQ9*($AQ$16 + $AQ$17*EXP(-(AO9-$AQ$21)/$AQ$18)+$AQ$19*EXP(-(AO9-$AQ$21)/$AQ$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9">
+        <f t="shared" ref="AV9" si="34">AU9/($AZ$16 + $AZ$17*EXP(-(AT9-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AT9-$AZ$21)/$AZ$20))</f>
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <f>AV9*($BA$16 + $BA$17*EXP(-(AT9-$BA$21)/$BA$18)+$BA$19*EXP(-(AT9-$BA$21)/$BA$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9">
+        <f t="shared" ref="BA9" si="35">AZ9/($AZ$16 + $AZ$17*EXP(-(AY9-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AY9-$AZ$21)/$AZ$20))</f>
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" ref="BB9" si="36">BA9*($BA$16 + $BA$17*EXP(-(AY9-$BA$21)/$BA$18)+$BA$19*EXP(-(AY9-$BA$21)/$BA$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9">
+        <f t="shared" ref="BF9" si="37">BE9/($BE$16 + $BE$17*EXP(-(BD9-$BE$21)/$BE$18)+$BE$19*EXP(-(BD9-$BE$21)/$BE$20))</f>
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" ref="BG9" si="38">BF9*($BF$16 + $BF$17*EXP(-(BD9-$BF$21)/$BF$18)+$BF$19*EXP(-(BD9-$BF$21)/$BF$20))*2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:59">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
+      <c r="A12" s="5" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:59">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V14" t="s">
-        <v>11</v>
-      </c>
-      <c r="W14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:59">
       <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>6.5002999999999997E-3</v>
-      </c>
-      <c r="C15">
-        <v>2.5134E-2</v>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>6.6184E-3</v>
-      </c>
-      <c r="H15">
-        <v>2.5815999999999999E-2</v>
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>6.4492999999999998E-3</v>
-      </c>
-      <c r="M15">
-        <v>2.4036999999999999E-2</v>
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
       </c>
       <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <v>6.3109999999999998E-3</v>
-      </c>
-      <c r="R15">
-        <v>2.6741000000000001E-2</v>
+        <v>25</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
       </c>
       <c r="U15" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <v>6.3851999999999997E-3</v>
-      </c>
-      <c r="W15">
-        <v>2.5432E-2</v>
+        <v>25</v>
+      </c>
+      <c r="V15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" t="s">
+        <v>10</v>
       </c>
       <c r="Z15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA15">
-        <v>6.9426999999999996E-3</v>
-      </c>
-      <c r="AB15">
-        <v>2.5134E-2</v>
+        <v>25</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>10</v>
       </c>
       <c r="AE15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF15">
-        <v>6.9709000000000004E-3</v>
-      </c>
-      <c r="AG15">
-        <v>2.4136999999999999E-2</v>
+        <v>25</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>10</v>
       </c>
       <c r="AJ15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK15">
-        <v>6.5160000000000001E-3</v>
-      </c>
-      <c r="AL15">
-        <v>2.4364E-2</v>
+        <v>25</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>10</v>
       </c>
       <c r="AO15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP15">
-        <v>6.6588000000000003E-3</v>
-      </c>
-      <c r="AQ15">
-        <v>2.4473999999999999E-2</v>
+        <v>25</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>10</v>
       </c>
       <c r="AT15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU15">
-        <v>6.3337000000000003E-3</v>
-      </c>
-      <c r="AV15">
-        <v>2.3081999999999998E-2</v>
+        <v>25</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>10</v>
       </c>
       <c r="AY15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ15">
-        <v>6.4111000000000003E-3</v>
-      </c>
-      <c r="BA15">
-        <v>2.4461E-2</v>
+        <v>25</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>10</v>
       </c>
       <c r="BD15" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE15">
-        <v>6.6043999999999999E-3</v>
-      </c>
-      <c r="BF15">
-        <v>2.4445000000000001E-2</v>
+        <v>25</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:59">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>-1.482E-3</v>
+        <v>6.5002999999999997E-3</v>
       </c>
       <c r="C16">
-        <v>-1.2622E-2</v>
+        <v>2.5134E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>-1.4541000000000001E-3</v>
+        <v>6.6184E-3</v>
       </c>
       <c r="H16">
-        <v>-1.3004E-2</v>
+        <v>2.5815999999999999E-2</v>
       </c>
       <c r="K16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>-1.4778E-3</v>
+        <v>6.4492999999999998E-3</v>
       </c>
       <c r="M16">
-        <v>-1.2011000000000001E-2</v>
+        <v>2.4036999999999999E-2</v>
       </c>
       <c r="P16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>-1.3163999999999999E-3</v>
+        <v>6.3109999999999998E-3</v>
       </c>
       <c r="R16">
-        <v>-1.363E-2</v>
+        <v>2.6741000000000001E-2</v>
       </c>
       <c r="U16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V16">
-        <v>-1.3538000000000001E-3</v>
+        <v>6.3851999999999997E-3</v>
       </c>
       <c r="W16">
-        <v>-1.2713E-2</v>
+        <v>2.5432E-2</v>
       </c>
       <c r="Z16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA16">
-        <v>-1.6436000000000001E-3</v>
+        <v>6.9426999999999996E-3</v>
       </c>
       <c r="AB16">
-        <v>-1.2622E-2</v>
+        <v>2.5134E-2</v>
       </c>
       <c r="AE16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF16">
-        <v>-1.6835999999999999E-3</v>
+        <v>6.9709000000000004E-3</v>
       </c>
       <c r="AG16">
-        <v>-1.2083E-2</v>
+        <v>2.4136999999999999E-2</v>
       </c>
       <c r="AJ16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK16">
-        <v>-1.3965E-3</v>
+        <v>6.5160000000000001E-3</v>
       </c>
       <c r="AL16">
-        <v>-1.2224E-2</v>
+        <v>2.4364E-2</v>
       </c>
       <c r="AO16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>-1.5150000000000001E-3</v>
+        <v>6.6588000000000003E-3</v>
       </c>
       <c r="AQ16">
-        <v>-1.2303E-2</v>
+        <v>2.4473999999999999E-2</v>
       </c>
       <c r="AT16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU16">
-        <v>-1.2022999999999999E-3</v>
+        <v>6.3337000000000003E-3</v>
       </c>
       <c r="AV16">
-        <v>-1.1601E-2</v>
+        <v>2.3081999999999998E-2</v>
       </c>
       <c r="AY16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ16">
-        <v>-1.2712000000000001E-3</v>
+        <v>6.5256000000000003E-3</v>
       </c>
       <c r="BA16">
-        <v>-1.2295E-2</v>
+        <v>2.4461E-2</v>
       </c>
       <c r="BD16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE16">
-        <v>-1.3366999999999999E-3</v>
+        <v>6.6043999999999999E-3</v>
       </c>
       <c r="BF16">
-        <v>-1.2352999999999999E-2</v>
+        <v>2.4445000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>8.1946999999999992</v>
+        <v>-1.482E-3</v>
       </c>
       <c r="C17">
-        <v>136.03</v>
+        <v>-1.2622E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>8.1959999999999997</v>
+        <v>-1.4541000000000001E-3</v>
       </c>
       <c r="H17">
-        <v>131.47</v>
+        <v>-1.3004E-2</v>
       </c>
       <c r="K17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>8.7093000000000007</v>
+        <v>-1.4778E-3</v>
       </c>
       <c r="M17">
-        <v>82.734999999999999</v>
+        <v>-1.2011000000000001E-2</v>
       </c>
       <c r="P17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>8.0915999999999997</v>
+        <v>-1.3163999999999999E-3</v>
       </c>
       <c r="R17">
-        <v>158.37</v>
+        <v>-1.363E-2</v>
       </c>
       <c r="U17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17">
-        <v>8.5117999999999991</v>
+        <v>-1.3538000000000001E-3</v>
       </c>
       <c r="W17">
-        <v>70.831000000000003</v>
+        <v>-1.2713E-2</v>
       </c>
       <c r="Z17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA17">
-        <v>10.385999999999999</v>
+        <v>-1.6436000000000001E-3</v>
       </c>
       <c r="AB17">
-        <v>136.03</v>
+        <v>-1.2622E-2</v>
       </c>
       <c r="AE17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17">
-        <v>10.868</v>
+        <v>-1.6835999999999999E-3</v>
       </c>
       <c r="AG17">
-        <v>123.73</v>
+        <v>-1.2083E-2</v>
       </c>
       <c r="AJ17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK17">
-        <v>9.6555999999999997</v>
+        <v>-1.3965E-3</v>
       </c>
       <c r="AL17">
-        <v>79.23</v>
+        <v>-1.2224E-2</v>
       </c>
       <c r="AO17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP17">
-        <v>10.583</v>
+        <v>-1.5150000000000001E-3</v>
       </c>
       <c r="AQ17">
-        <v>82.5</v>
+        <v>-1.2303E-2</v>
       </c>
       <c r="AT17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU17">
-        <v>8.3945000000000007</v>
+        <v>-1.2022999999999999E-3</v>
       </c>
       <c r="AV17">
-        <v>101.36</v>
+        <v>-1.1601E-2</v>
       </c>
       <c r="AY17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ17">
-        <v>9.6111000000000004</v>
+        <v>-1.4117000000000001E-3</v>
       </c>
       <c r="BA17">
-        <v>148.87</v>
+        <v>-1.2295E-2</v>
       </c>
       <c r="BD17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE17">
-        <v>11.343999999999999</v>
+        <v>-1.3366999999999999E-3</v>
       </c>
       <c r="BF17">
-        <v>172.71</v>
+        <v>-1.2352999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>-4.7384000000000003E-3</v>
+        <v>8.1946999999999992</v>
       </c>
       <c r="C18">
-        <v>-1.2203E-2</v>
+        <v>136.03</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>-4.8885999999999999E-3</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="H18">
-        <v>-1.2475E-2</v>
+        <v>131.47</v>
       </c>
       <c r="K18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>-4.7009E-3</v>
+        <v>8.7093000000000007</v>
       </c>
       <c r="M18">
-        <v>-1.1662E-2</v>
+        <v>82.734999999999999</v>
       </c>
       <c r="P18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>-4.7308000000000003E-3</v>
+        <v>8.0915999999999997</v>
       </c>
       <c r="R18">
-        <v>-1.2798E-2</v>
+        <v>158.37</v>
       </c>
       <c r="U18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>-4.7774999999999996E-3</v>
+        <v>8.5117999999999991</v>
       </c>
       <c r="W18">
-        <v>-1.2407E-2</v>
+        <v>70.831000000000003</v>
       </c>
       <c r="Z18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA18">
-        <v>-5.0479000000000001E-3</v>
+        <v>10.385999999999999</v>
       </c>
       <c r="AB18">
-        <v>-1.2203E-2</v>
+        <v>136.03</v>
       </c>
       <c r="AE18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF18">
-        <v>-5.0499000000000004E-3</v>
+        <v>10.868</v>
       </c>
       <c r="AG18">
-        <v>-1.1766E-2</v>
+        <v>123.73</v>
       </c>
       <c r="AJ18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18">
-        <v>-4.8821000000000003E-3</v>
+        <v>9.6555999999999997</v>
       </c>
       <c r="AL18">
-        <v>-1.1859E-2</v>
+        <v>79.23</v>
       </c>
       <c r="AO18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP18">
-        <v>-4.9135000000000003E-3</v>
+        <v>10.583</v>
       </c>
       <c r="AQ18">
-        <v>-1.1896E-2</v>
+        <v>82.5</v>
       </c>
       <c r="AT18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU18">
-        <v>-4.9106999999999996E-3</v>
+        <v>8.3945000000000007</v>
       </c>
       <c r="AV18">
-        <v>-1.1212E-2</v>
+        <v>101.36</v>
       </c>
       <c r="AY18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ18">
-        <v>-4.9188000000000001E-3</v>
+        <v>10.606</v>
       </c>
       <c r="BA18">
-        <v>-1.1892E-2</v>
+        <v>148.87</v>
       </c>
       <c r="BD18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE18">
-        <v>-5.0714000000000002E-3</v>
+        <v>11.343999999999999</v>
       </c>
       <c r="BF18">
-        <v>-1.1847999999999999E-2</v>
+        <v>172.71</v>
       </c>
     </row>
     <row r="19" spans="1:58">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>72.11</v>
+        <v>-4.7384000000000003E-3</v>
       </c>
       <c r="C19">
-        <v>76.102999999999994</v>
+        <v>-1.2203E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>76.757000000000005</v>
+        <v>-4.8885999999999999E-3</v>
       </c>
       <c r="H19">
-        <v>66.128</v>
+        <v>-1.2475E-2</v>
       </c>
       <c r="K19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>73.929000000000002</v>
+        <v>-4.7009E-3</v>
       </c>
       <c r="M19">
-        <v>88.281999999999996</v>
+        <v>-1.1662E-2</v>
       </c>
       <c r="P19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q19">
-        <v>68.588999999999999</v>
+        <v>-4.7308000000000003E-3</v>
       </c>
       <c r="R19">
-        <v>66.703000000000003</v>
+        <v>-1.2798E-2</v>
       </c>
       <c r="U19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>72.790999999999997</v>
+        <v>-4.7774999999999996E-3</v>
       </c>
       <c r="W19">
-        <v>143.11000000000001</v>
+        <v>-1.2407E-2</v>
       </c>
       <c r="Z19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA19">
-        <v>97.405000000000001</v>
+        <v>-5.0479000000000001E-3</v>
       </c>
       <c r="AB19">
-        <v>76.102999999999994</v>
+        <v>-1.2203E-2</v>
       </c>
       <c r="AE19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF19">
-        <v>101.82</v>
+        <v>-5.0499000000000004E-3</v>
       </c>
       <c r="AG19">
-        <v>78.665000000000006</v>
+        <v>-1.1766E-2</v>
       </c>
       <c r="AJ19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK19">
-        <v>83.218999999999994</v>
+        <v>-4.8821000000000003E-3</v>
       </c>
       <c r="AL19">
-        <v>139.77000000000001</v>
+        <v>-1.1859E-2</v>
       </c>
       <c r="AO19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP19">
-        <v>90.453000000000003</v>
+        <v>-4.9135000000000003E-3</v>
       </c>
       <c r="AQ19">
-        <v>138.86000000000001</v>
+        <v>-1.1896E-2</v>
       </c>
       <c r="AT19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU19">
-        <v>75.798000000000002</v>
+        <v>-4.9106999999999996E-3</v>
       </c>
       <c r="AV19">
-        <v>95.926000000000002</v>
+        <v>-1.1212E-2</v>
       </c>
       <c r="AY19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ19">
-        <v>80.768000000000001</v>
+        <v>-4.8897000000000003E-3</v>
       </c>
       <c r="BA19">
-        <v>85.361999999999995</v>
+        <v>-1.1892E-2</v>
       </c>
       <c r="BD19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE19">
-        <v>96.24</v>
+        <v>-5.0714000000000002E-3</v>
       </c>
       <c r="BF19">
-        <v>97.78</v>
+        <v>-1.1847999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>72.11</v>
+      </c>
+      <c r="C20">
+        <v>76.102999999999994</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>76.757000000000005</v>
+      </c>
+      <c r="H20">
+        <v>66.128</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>73.929000000000002</v>
+      </c>
+      <c r="M20">
+        <v>88.281999999999996</v>
+      </c>
+      <c r="P20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>68.588999999999999</v>
+      </c>
+      <c r="R20">
+        <v>66.703000000000003</v>
+      </c>
+      <c r="U20" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20">
+        <v>72.790999999999997</v>
+      </c>
+      <c r="W20">
+        <v>143.11000000000001</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20">
+        <v>97.405000000000001</v>
+      </c>
+      <c r="AB20">
+        <v>76.102999999999994</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF20">
+        <v>101.82</v>
+      </c>
+      <c r="AG20">
+        <v>78.665000000000006</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK20">
+        <v>83.218999999999994</v>
+      </c>
+      <c r="AL20">
+        <v>139.77000000000001</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP20">
+        <v>90.453000000000003</v>
+      </c>
+      <c r="AQ20">
+        <v>138.86000000000001</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU20">
+        <v>75.798000000000002</v>
+      </c>
+      <c r="AV20">
+        <v>95.926000000000002</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ20">
+        <v>86.745000000000005</v>
+      </c>
+      <c r="BA20">
+        <v>85.361999999999995</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE20">
+        <v>96.24</v>
+      </c>
+      <c r="BF20">
+        <v>97.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0.95409999999999995</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1.0175000000000001</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>8</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>0.96909999999999996</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>1.0123</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>8</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>0.97119999999999995</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>1.0195000000000001</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P21" t="s">
         <v>8</v>
       </c>
-      <c r="Q20">
+      <c r="Q21">
         <v>0.96960000000000002</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <v>1.0263</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U21" t="s">
         <v>8</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>0.96209999999999996</v>
       </c>
-      <c r="W20">
+      <c r="W21">
         <v>1.0182</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z21" t="s">
         <v>8</v>
       </c>
-      <c r="AA20">
+      <c r="AA21">
         <v>0.96640000000000004</v>
       </c>
-      <c r="AB20">
+      <c r="AB21">
         <v>1.0175000000000001</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AE21" t="s">
         <v>8</v>
       </c>
-      <c r="AF20">
+      <c r="AF21">
         <v>0.9506</v>
       </c>
-      <c r="AG20">
+      <c r="AG21">
         <v>1.0265</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AJ21" t="s">
         <v>8</v>
       </c>
-      <c r="AK20">
+      <c r="AK21">
         <v>0.98160000000000003</v>
       </c>
-      <c r="AL20">
+      <c r="AL21">
         <v>1.0268999999999999</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AO21" t="s">
         <v>8</v>
       </c>
-      <c r="AP20">
+      <c r="AP21">
         <v>0.9708</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ21">
         <v>1.0181</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AT21" t="s">
         <v>8</v>
       </c>
-      <c r="AU20">
+      <c r="AU21">
         <v>0.96319999999999995</v>
       </c>
-      <c r="AV20">
+      <c r="AV21">
         <v>1.0185</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AY21" t="s">
         <v>8</v>
       </c>
-      <c r="AZ20">
+      <c r="AZ21">
         <v>0.96960000000000002</v>
       </c>
-      <c r="BA20">
+      <c r="BA21">
         <v>1.0255000000000001</v>
       </c>
-      <c r="BD20" t="s">
+      <c r="BD21" t="s">
         <v>8</v>
       </c>
-      <c r="BE20">
+      <c r="BE21">
         <v>0.9768</v>
       </c>
-      <c r="BF20">
+      <c r="BF21">
         <v>1.0161</v>
       </c>
     </row>

--- a/CxHy_H2_and_He_template.xlsx
+++ b/CxHy_H2_and_He_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F918923-2A50-4F37-8CFA-FCBF186ECF83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B810AA67-781E-4D18-A232-E650EC4A0790}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="230" windowWidth="16100" windowHeight="11140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2350" yWindow="20" windowWidth="16100" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="38">
   <si>
     <t>MPa</t>
   </si>
@@ -179,6 +179,15 @@
   <si>
     <t>293.15K (20 degree of Celsius)</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from plot_gcmc.gpl</t>
+  </si>
+  <si>
+    <t>nH2</t>
+  </si>
+  <si>
+    <t>wt.%</t>
   </si>
 </sst>
 </file>
@@ -4637,10 +4646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS14"/>
+  <dimension ref="A1:BS18"/>
   <sheetViews>
-    <sheetView topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BS8" sqref="BS8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5060,7 +5069,7 @@
         <v>376.34161517421109</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E6" si="10">(C4-D4)/($B$14+C4-D4)*100</f>
+        <f t="shared" ref="E4:E5" si="10">(C4-D4)/($B$14+C4-D4)*100</f>
         <v>2.0604607073851047</v>
       </c>
       <c r="G4" s="4"/>
@@ -6169,6 +6178,27 @@
       <c r="B14" s="4">
         <f xml:space="preserve"> 2304*12+576</f>
         <v>28224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4">
+        <v>153.83515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>1.078346612</v>
       </c>
     </row>
   </sheetData>
@@ -6183,8 +6213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323AA30-3DDC-4545-83D0-069D8AFD5649}">
   <dimension ref="A1:BG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6661,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="AW4">
-        <f>AV4*($BA$16 + $BA$17*EXP(-(AT4-$BA$21)/$BA$18)+$BA$19*EXP(-(AT4-$BA$21)/$BA$20))*2</f>
+        <f t="shared" ref="AW4:AW9" si="19">AV4*($BA$16 + $BA$17*EXP(-(AT4-$BA$21)/$BA$18)+$BA$19*EXP(-(AT4-$BA$21)/$BA$20))*2</f>
         <v>0</v>
       </c>
       <c r="AY4" s="4">
@@ -6671,7 +6701,7 @@
         <v>102.6739</v>
       </c>
       <c r="BA4">
-        <f t="shared" ref="BA4:BA8" si="19">AZ4/($AZ$16 + $AZ$17*EXP(-(AY4-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AY4-$AZ$21)/$AZ$20))</f>
+        <f t="shared" ref="BA4:BA8" si="20">AZ4/($AZ$16 + $AZ$17*EXP(-(AY4-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AY4-$AZ$21)/$AZ$20))</f>
         <v>51727.46877105927</v>
       </c>
       <c r="BB4">
@@ -6685,11 +6715,11 @@
         <v>81.668300000000002</v>
       </c>
       <c r="BF4">
-        <f t="shared" ref="BF4:BF8" si="20">BE4/($BE$16 + $BE$17*EXP(-(BD4-$BE$21)/$BE$18)+$BE$19*EXP(-(BD4-$BE$21)/$BE$20))</f>
+        <f t="shared" ref="BF4:BF8" si="21">BE4/($BE$16 + $BE$17*EXP(-(BD4-$BE$21)/$BE$18)+$BE$19*EXP(-(BD4-$BE$21)/$BE$20))</f>
         <v>44607.765789132463</v>
       </c>
       <c r="BG4">
-        <f t="shared" ref="BG4:BG8" si="21">BF4*($BF$16 + $BF$17*EXP(-(BD4-$BF$21)/$BF$18)+$BF$19*EXP(-(BD4-$BF$21)/$BF$20))*2</f>
+        <f t="shared" ref="BG4:BG8" si="22">BF4*($BF$16 + $BF$17*EXP(-(BD4-$BF$21)/$BF$18)+$BF$19*EXP(-(BD4-$BF$21)/$BF$20))*2</f>
         <v>248.04850652803421</v>
       </c>
     </row>
@@ -6806,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <f>AV5*($BA$16 + $BA$17*EXP(-(AT5-$BA$21)/$BA$18)+$BA$19*EXP(-(AT5-$BA$21)/$BA$20))*2</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AY5" s="4">
@@ -6816,7 +6846,7 @@
         <v>114.31529999999999</v>
       </c>
       <c r="BA5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>38952.608388814646</v>
       </c>
       <c r="BB5">
@@ -6830,11 +6860,11 @@
         <v>88.137500000000003</v>
       </c>
       <c r="BF5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32047.780701292191</v>
       </c>
       <c r="BG5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>332.8423882002067</v>
       </c>
     </row>
@@ -6941,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <f>AV6*($BA$16 + $BA$17*EXP(-(AT6-$BA$21)/$BA$18)+$BA$19*EXP(-(AT6-$BA$21)/$BA$20))*2</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AY6" s="4">
@@ -6949,7 +6979,7 @@
       </c>
       <c r="AZ6" s="4"/>
       <c r="BA6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB6">
@@ -6961,11 +6991,11 @@
       </c>
       <c r="BE6" s="4"/>
       <c r="BF6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BG6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -7072,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="AW7">
-        <f>AV7*($BA$16 + $BA$17*EXP(-(AT7-$BA$21)/$BA$18)+$BA$19*EXP(-(AT7-$BA$21)/$BA$20))*2</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AY7" s="4">
@@ -7080,7 +7110,7 @@
       </c>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB7">
@@ -7092,11 +7122,11 @@
       </c>
       <c r="BE7" s="4"/>
       <c r="BF7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BG7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -7203,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <f>AV8*($BA$16 + $BA$17*EXP(-(AT8-$BA$21)/$BA$18)+$BA$19*EXP(-(AT8-$BA$21)/$BA$20))*2</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AY8" s="4">
@@ -7211,7 +7241,7 @@
       </c>
       <c r="AZ8" s="4"/>
       <c r="BA8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB8">
@@ -7223,11 +7253,11 @@
       </c>
       <c r="BE8" s="4"/>
       <c r="BF8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BG8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -7254,11 +7284,11 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9">
-        <f t="shared" ref="M9" si="22">L9/($L$16 + $L$17*EXP(-(K9-$L$21)/$L$18)+$L$19*EXP(-(K9-$L$21)/$L$20))</f>
+        <f t="shared" ref="M9" si="23">L9/($L$16 + $L$17*EXP(-(K9-$L$21)/$L$18)+$L$19*EXP(-(K9-$L$21)/$L$20))</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9" si="23">M9*($M$16 + $M$17*EXP(-(K9-$M$21)/$M$18)+$M$19*EXP(-(K9-$M$21)/$M$20))*2</f>
+        <f t="shared" ref="N9" si="24">M9*($M$16 + $M$17*EXP(-(K9-$M$21)/$M$18)+$M$19*EXP(-(K9-$M$21)/$M$20))*2</f>
         <v>0</v>
       </c>
       <c r="P9" s="4"/>
@@ -7268,53 +7298,53 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" ref="S9" si="24">R9*($R$16 + $R$17*EXP(-(P9-$R$21)/$R$18)+$R$19*EXP(-(P9-$R$21)/$R$20))*2</f>
+        <f t="shared" ref="S9" si="25">R9*($R$16 + $R$17*EXP(-(P9-$R$21)/$R$18)+$R$19*EXP(-(P9-$R$21)/$R$20))*2</f>
         <v>0</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9">
-        <f t="shared" ref="W9" si="25">V9/($V$16 + $V$17*EXP(-(U9-$V$21)/$V$18)+$V$19*EXP(-(U9-$V$21)/$V$20))</f>
+        <f t="shared" ref="W9" si="26">V9/($V$16 + $V$17*EXP(-(U9-$V$21)/$V$18)+$V$19*EXP(-(U9-$V$21)/$V$20))</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" ref="X9" si="26">W9*($W$16 + $W$17*EXP(-(U9-$W$21)/$W$18)+$W$19*EXP(-(U9-$W$21)/$W$20))*2</f>
+        <f t="shared" ref="X9" si="27">W9*($W$16 + $W$17*EXP(-(U9-$W$21)/$W$18)+$W$19*EXP(-(U9-$W$21)/$W$20))*2</f>
         <v>0</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9">
-        <f t="shared" ref="AB9" si="27">AA9/($AA$16 + $AA$17*EXP(-(Z9-$AA$21)/$AA$18)+$AA$19*EXP(-(Z9-$AA$21)/$AA$20))</f>
+        <f t="shared" ref="AB9" si="28">AA9/($AA$16 + $AA$17*EXP(-(Z9-$AA$21)/$AA$18)+$AA$19*EXP(-(Z9-$AA$21)/$AA$20))</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" ref="AC9" si="28">AB9*($AB$16 + $AB$17*EXP(-(Z9-$AB$21)/$AB$18)+$AB$19*EXP(-(Z9-$AB$21)/$AB$20))*2</f>
+        <f t="shared" ref="AC9" si="29">AB9*($AB$16 + $AB$17*EXP(-(Z9-$AB$21)/$AB$18)+$AB$19*EXP(-(Z9-$AB$21)/$AB$20))*2</f>
         <v>0</v>
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9">
-        <f t="shared" ref="AG9" si="29">AF9/($AF$16 + $AF$17*EXP(-(AE9-$AF$21)/$AF$18)+$AF$19*EXP(-(AE9-$AF$21)/$AF$20))</f>
+        <f t="shared" ref="AG9" si="30">AF9/($AF$16 + $AF$17*EXP(-(AE9-$AF$21)/$AF$18)+$AF$19*EXP(-(AE9-$AF$21)/$AF$20))</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f t="shared" ref="AH9" si="30">AG9*($AG$16 + $AG$17*EXP(-(AE9-$AG$21)/$AG$18)+$AG$19*EXP(-(AE9-$AG$21)/$AG$20))*2</f>
+        <f t="shared" ref="AH9" si="31">AG9*($AG$16 + $AG$17*EXP(-(AE9-$AG$21)/$AG$18)+$AG$19*EXP(-(AE9-$AG$21)/$AG$20))*2</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9">
-        <f t="shared" ref="AL9" si="31">AK9/($AK$16 + $AK$17*EXP(-(AJ9-$AK$21)/$AK$18)+$AK$19*EXP(-(AJ9-$AK$21)/$AK$20))</f>
+        <f t="shared" ref="AL9" si="32">AK9/($AK$16 + $AK$17*EXP(-(AJ9-$AK$21)/$AK$18)+$AK$19*EXP(-(AJ9-$AK$21)/$AK$20))</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f t="shared" ref="AM9" si="32">AL9*($AL$16 + $AL$17*EXP(-(AJ9-$AL$21)/$AL$18)+$AL$19*EXP(-(AJ9-$AL$21)/$AL$20))*2</f>
+        <f t="shared" ref="AM9" si="33">AL9*($AL$16 + $AL$17*EXP(-(AJ9-$AL$21)/$AL$18)+$AL$19*EXP(-(AJ9-$AL$21)/$AL$20))*2</f>
         <v>0</v>
       </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9">
-        <f t="shared" ref="AQ9" si="33">AP9/($AP$16 + $AP$17*EXP(-(AO9-$AP$21)/$AP$18)+$AP$19*EXP(-(AO9-$AP$21)/$AP$20))</f>
+        <f t="shared" ref="AQ9" si="34">AP9/($AP$16 + $AP$17*EXP(-(AO9-$AP$21)/$AP$18)+$AP$19*EXP(-(AO9-$AP$21)/$AP$20))</f>
         <v>0</v>
       </c>
       <c r="AR9">
@@ -7324,31 +7354,31 @@
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
       <c r="AV9">
-        <f t="shared" ref="AV9" si="34">AU9/($AZ$16 + $AZ$17*EXP(-(AT9-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AT9-$AZ$21)/$AZ$20))</f>
+        <f t="shared" ref="AV9" si="35">AU9/($AZ$16 + $AZ$17*EXP(-(AT9-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AT9-$AZ$21)/$AZ$20))</f>
         <v>0</v>
       </c>
       <c r="AW9">
-        <f>AV9*($BA$16 + $BA$17*EXP(-(AT9-$BA$21)/$BA$18)+$BA$19*EXP(-(AT9-$BA$21)/$BA$20))*2</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
       <c r="BA9">
-        <f t="shared" ref="BA9" si="35">AZ9/($AZ$16 + $AZ$17*EXP(-(AY9-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AY9-$AZ$21)/$AZ$20))</f>
+        <f t="shared" ref="BA9" si="36">AZ9/($AZ$16 + $AZ$17*EXP(-(AY9-$AZ$21)/$AZ$18)+$AZ$19*EXP(-(AY9-$AZ$21)/$AZ$20))</f>
         <v>0</v>
       </c>
       <c r="BB9">
-        <f t="shared" ref="BB9" si="36">BA9*($BA$16 + $BA$17*EXP(-(AY9-$BA$21)/$BA$18)+$BA$19*EXP(-(AY9-$BA$21)/$BA$20))*2</f>
+        <f t="shared" ref="BB9" si="37">BA9*($BA$16 + $BA$17*EXP(-(AY9-$BA$21)/$BA$18)+$BA$19*EXP(-(AY9-$BA$21)/$BA$20))*2</f>
         <v>0</v>
       </c>
       <c r="BD9" s="4"/>
       <c r="BE9" s="4"/>
       <c r="BF9">
-        <f t="shared" ref="BF9" si="37">BE9/($BE$16 + $BE$17*EXP(-(BD9-$BE$21)/$BE$18)+$BE$19*EXP(-(BD9-$BE$21)/$BE$20))</f>
+        <f t="shared" ref="BF9" si="38">BE9/($BE$16 + $BE$17*EXP(-(BD9-$BE$21)/$BE$18)+$BE$19*EXP(-(BD9-$BE$21)/$BE$20))</f>
         <v>0</v>
       </c>
       <c r="BG9">
-        <f t="shared" ref="BG9" si="38">BF9*($BF$16 + $BF$17*EXP(-(BD9-$BF$21)/$BF$18)+$BF$19*EXP(-(BD9-$BF$21)/$BF$20))*2</f>
+        <f t="shared" ref="BG9" si="39">BF9*($BF$16 + $BF$17*EXP(-(BD9-$BF$21)/$BF$18)+$BF$19*EXP(-(BD9-$BF$21)/$BF$20))*2</f>
         <v>0</v>
       </c>
     </row>
